--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A133945-76A6-4FBE-9B64-D0392EDFCB7F}"/>
+  <xr:revisionPtr revIDLastSave="902" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4292080B-500E-40D8-9A2E-C7780E721D85}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="1464" windowWidth="32412" windowHeight="14400" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="20544" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="165">
   <si>
     <t>Intro</t>
   </si>
@@ -54,15 +54,6 @@
     <t>Topic Selection</t>
   </si>
   <si>
-    <t>Topic Questions</t>
-  </si>
-  <si>
-    <t>Topic Action Points</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
     <t>Shape your future, your way.</t>
   </si>
   <si>
@@ -108,39 +99,9 @@
     <t>function_detail</t>
   </si>
   <si>
-    <t>Career exploration and internal paths</t>
-  </si>
-  <si>
-    <t>Goal setting and action planning</t>
-  </si>
-  <si>
-    <t>Resume and cover letter review</t>
-  </si>
-  <si>
-    <t>Interview preparation</t>
-  </si>
-  <si>
-    <t>Personal branding</t>
-  </si>
-  <si>
     <t>Professional development</t>
   </si>
   <si>
-    <t>Performance improvement</t>
-  </si>
-  <si>
-    <t>Career transition</t>
-  </si>
-  <si>
-    <t>Work-life balance</t>
-  </si>
-  <si>
-    <t>Organizational knowledge</t>
-  </si>
-  <si>
-    <t>Company-specific development programs</t>
-  </si>
-  <si>
     <t>Leadership development</t>
   </si>
   <si>
@@ -150,21 +111,6 @@
     <t>Retention and engagement</t>
   </si>
   <si>
-    <t>Cultural fit</t>
-  </si>
-  <si>
-    <t>Topic Action Points Subheader</t>
-  </si>
-  <si>
-    <t>Topic Action Points Markdown</t>
-  </si>
-  <si>
-    <t>Report Subheader</t>
-  </si>
-  <si>
-    <t>Report Markdown</t>
-  </si>
-  <si>
     <t>intro_prompt</t>
   </si>
   <si>
@@ -183,51 +129,12 @@
     <t>topic_additional_prompt</t>
   </si>
   <si>
-    <t>We safeguard AIA's financial wellbeing by ensuring our products are well-designed and suitably priced. We also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
-  </si>
-  <si>
     <t>Actuarial</t>
   </si>
   <si>
     <t>Human Resources</t>
   </si>
   <si>
-    <t>We support and develop AIA's Premier Agency channel through programmes designed to raise the productivity and professionalism of our agency service.</t>
-  </si>
-  <si>
-    <t>We partner with the business to attract and retain the best people through workforce planning and recruitment, organisation culture and employee engagement, performance management and capability building, and rewards and recognition.</t>
-  </si>
-  <si>
-    <t>We provide effective and objective oversight of the risks faced by the Group and give assurance to management and the Board that the risks are being managed satisfactorily. Our work helps the Board to maintain an international standard of corporate governance.</t>
-  </si>
-  <si>
-    <t>We safeguard AIA’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. We are also responsible for all external reporting including statutory and regulatory filings.</t>
-  </si>
-  <si>
-    <t>We develop, deploy and support our regions with innovative technologies to help create a digital environment that is simpler, easier and more secure for our businesses and customers.</t>
-  </si>
-  <si>
-    <t>We help AIA to engage in a meaningful manner with customers and other stakeholders. We ensure the consistency of AIA’s messaging across all channels, design marketing campaigns to manage customer advocacy and experience, and use data insights to make key business decisions.</t>
-  </si>
-  <si>
-    <t>We support our customers, employees, agents and distribution partners across the buy, service and claims journeys by developing and delivering market leading experience through our underwriting, customer servicing and claims teams.</t>
-  </si>
-  <si>
-    <t>We support corporate clients by providing employee benefits, pensions and voluntary solutions to cover workforce needs and to assist with talent retention.</t>
-  </si>
-  <si>
-    <t>We collaborate and partner with banks, independent financial advisory firms, brokerage bodies and other third-party intermediates, to market AIA products through various distribution channels.</t>
-  </si>
-  <si>
-    <t>We manage policyholders’ assets and corporate assets to maximise risk-adjusted investment returns. In addition, we support product strategy functions in the development of competitive products by providing input on investment instruments and markets.</t>
-  </si>
-  <si>
-    <t>The Strategy and Digital team focuses on developing and implementing data-driven, innovative strategies to enhance overall business performance. By leveraging digital technologies and analytics, they identify growth opportunities, optimize customer experiences, and streamline operations. The team collaborates with various departments to facilitate digital transformation and create a competitive advantage in an ever-evolving market landscape.</t>
-  </si>
-  <si>
-    <t>The legal team ensures compliance with laws and regulations, manages legal risks, and provides expert advice on all legal matters. They draft and review contracts, handle litigation, protect intellectual property, and offer guidance on corporate governance. Additionally, they support mergers and acquisitions, and maintain strong relationships with external counsel and regulatory authorities.</t>
-  </si>
-  <si>
     <t>promotion_criteria</t>
   </si>
   <si>
@@ -279,13 +186,7 @@
     <t>question2</t>
   </si>
   <si>
-    <t>I feel stuck in my role</t>
-  </si>
-  <si>
     <t>max_questions</t>
-  </si>
-  <si>
-    <t>What shall we discuss today?</t>
   </si>
   <si>
     <t>Choose a topic below and share some intitial background.</t>
@@ -316,55 +217,13 @@
 Reply to me with a brief welcome, and share that next we will select a topic to discuss today. No more than 100 words. Do not sign off. Do not ask any questions at this stage.</t>
   </si>
   <si>
-    <t>What aspects of your current role do you find most challenging or unsatisfying?</t>
-  </si>
-  <si>
-    <t>Please share some initial background on your career goals and how do they align with your current position?</t>
-  </si>
-  <si>
     <t>question_format</t>
   </si>
   <si>
-    <t>AIA Career Coach</t>
-  </si>
-  <si>
-    <t>Thanks for taking the time to explore your career options. We are here to support and empower you to navigate your professional journey within our organization. We recognize that each individual's career path is unique, and our mission is to provide personalized guidance, resources, and opportunities to help you grow and thrive, in your current and future roles.
-We are committed to assisting you in identifying your strengths, interests, and aspirations, aligning them with available opportunities, and providing tailored advice on how to reach your full potential. At AIA, we have a comprehensive range of resources, including training programs, mentorship programs, and networking events, all designed to enrich your professional development and encourage career progression.
-As a valued member of our organization, we encourage you to take advantage of this service, whether you're just starting out, seeking advancement, or exploring new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are an internal career coach at AIA. Your aim is to guide me to identify specfic areas of personal and professional development to meet my short and long-term career aspirations, in AIA or elsewhere. Your tone should be professional, friendly and empathetic. </t>
-  </si>
-  <si>
     <t>Ask me an additional {additional_question_no} questions on this topic, keep it relevant to the initial discussion topic. After I have answered the last question, reply with an updated summary, matching the previously shared format.</t>
   </si>
   <si>
     <t>additional_question_no</t>
-  </si>
-  <si>
-    <t>Topic: I feel stuck in my role.
----
-This is AIA Internal's Guide:
-{aia_info}
----
-I find the following aspects of my role most challenging or unsatisfying:
-{reply_1}
-My career goals and alignment with my current position are:
-{reply_2}
----
-Taking into consideration the above, guide my thought process through a sequence of questions and proposed answers. Please intitiate the thought-provoking sequence of questions by asking me one question and only ask the next one when an answer is provided. With each question, provide several suggestions.
-Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel stuck in my role, and help me decide on some meaningful next steps I can take.
-The questions should be asked one at a time, only move onto the next question after I have replied. 
-Ask me exactly {max_questions} questions. 
-Our conversation should progress as follows:
-{question_format}</t>
   </si>
   <si>
     <t>[Acknowledge my situation with empathy, then Question 1, provided by you]
@@ -404,7 +263,189 @@
 Feeling stuck in your role can be frustrating, but by taking proactive steps, seeking feedback, and continuously developing your skills, you can unlock new opportunities for growth and success. Remember, it's essential to maintain open communication with your manager and colleagues to ensure your career goals and aspirations are understood and supported.</t>
   </si>
   <si>
-    <t>Write a 250 word recap of our discussion and provide suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal AIA site pages if suitable.
+    <t>AIA development programs</t>
+  </si>
+  <si>
+    <t>---Managing Teams---</t>
+  </si>
+  <si>
+    <t>--- Career Planning ---</t>
+  </si>
+  <si>
+    <t>Promotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --- Personal Development---</t>
+  </si>
+  <si>
+    <t>Building a personal brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --- First 90 Days ---</t>
+  </si>
+  <si>
+    <t>Time management</t>
+  </si>
+  <si>
+    <t>Career goals</t>
+  </si>
+  <si>
+    <t>Feeling stuck in your role</t>
+  </si>
+  <si>
+    <t>Stress and burnout</t>
+  </si>
+  <si>
+    <t>Improving performance</t>
+  </si>
+  <si>
+    <t>Building better habits</t>
+  </si>
+  <si>
+    <t>Joining a new team</t>
+  </si>
+  <si>
+    <t>Changing team or role</t>
+  </si>
+  <si>
+    <t>Joining AIA</t>
+  </si>
+  <si>
+    <t>Taking on new responsibilities</t>
+  </si>
+  <si>
+    <t>Changing region</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>How long have you been in your current position?</t>
+  </si>
+  <si>
+    <t>What specific promotion or career advancement are you targeting?</t>
+  </si>
+  <si>
+    <t>Are there any potential successors already within the organisation or team?</t>
+  </si>
+  <si>
+    <t>What are your current responsibilities?</t>
+  </si>
+  <si>
+    <t>Can you describe the aspects of your role that make you feel stuck or stagnant?</t>
+  </si>
+  <si>
+    <t>What aspects of your job do you find most stressful or overwhelming?</t>
+  </si>
+  <si>
+    <t>Have you experienced any symptoms of burnout or signs of excessive stress?</t>
+  </si>
+  <si>
+    <t>How long have you been in your current position and what are your primary responsibilities?</t>
+  </si>
+  <si>
+    <t>What specific areas of your role do you find lacking in challenge or stimulation?</t>
+  </si>
+  <si>
+    <t>Can you describe your typical work week and the demands it places on your personal life?</t>
+  </si>
+  <si>
+    <t>What specific aspects of your work-life balance do you want to improve?</t>
+  </si>
+  <si>
+    <t>What are your key strengths and areas for improvement in your current role?</t>
+  </si>
+  <si>
+    <t>Are there specific skills or qualifications you want to acquire to enhance your professional growth?</t>
+  </si>
+  <si>
+    <t>Have you held any leadership positions in the past or are currently in a leadership role?</t>
+  </si>
+  <si>
+    <t>What aspects of leadership do you want to improve or develop further?</t>
+  </si>
+  <si>
+    <t>How would you currently describe your personal brand or professional reputation?</t>
+  </si>
+  <si>
+    <t>What specific aspects of your personal brand do you want to focus on and enhance?</t>
+  </si>
+  <si>
+    <t>Can you describe your current level of performance and any feedback you've received?</t>
+  </si>
+  <si>
+    <t>What specific performance improvements do you want to achieve in the short and long term?</t>
+  </si>
+  <si>
+    <t>Do you have any specific career goals and areas for development within AIA?</t>
+  </si>
+  <si>
+    <t>Can you identify any habits that might be negatively affecting your professional or personal life?</t>
+  </si>
+  <si>
+    <t>What new habits would you like to develop to improve your overall well-being and success?</t>
+  </si>
+  <si>
+    <t>How do you currently prioritise and manage your tasks and responsibilities?</t>
+  </si>
+  <si>
+    <t>Are there specific time management challenges or issues you would like to address?</t>
+  </si>
+  <si>
+    <t>What is your new role within AIA and what are your key responsibilities?</t>
+  </si>
+  <si>
+    <t>Can you provide some background on the new team you are joining, including its size and function?</t>
+  </si>
+  <si>
+    <t>What is your previous role and what will be your new role within the organisation?</t>
+  </si>
+  <si>
+    <t>Are there any specific challenges or concerns you anticipate with this change in team or role?</t>
+  </si>
+  <si>
+    <t>What is the new region you will be working in and what prompted the move?</t>
+  </si>
+  <si>
+    <t>Are there any cultural, language, or logistical challenges you anticipate in the new region?</t>
+  </si>
+  <si>
+    <t>What new responsibilities have been added to your role and how do they align with your existing skill set?</t>
+  </si>
+  <si>
+    <t>Do you have any concerns about managing these new responsibilities effectively?</t>
+  </si>
+  <si>
+    <t>Can you describe the current state of employee retention and engagement within your team or organisation?</t>
+  </si>
+  <si>
+    <t>Are there specific challenges or factors contributing to employee turnover or disengagement?</t>
+  </si>
+  <si>
+    <t>What are your short-term and long-term career aspirations or objectives that you would like to focus on during our  session?</t>
+  </si>
+  <si>
+    <t>coaching_prompt</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I intitatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel stuck in my role, and help me decide on some meaningful next steps I can take.</t>
+  </si>
+  <si>
+    <t>question_guidance</t>
+  </si>
+  <si>
+    <t>Challenge me and help me refine my career aspirations and objectives.
+Ask what I intitatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine my career goals, and help me decide on some meaningful next steps I can take.</t>
+  </si>
+  <si>
+    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal AIA site pages if suitable.
 The summary should follow the format below, where the descriptions in [ ] should be generated by you. Please use github flavored markdown and use bullets if relevant.
 [Recap of our discussion, key concerns, problems and potential approaches, approximately 200 words]
 #### Action Plan
@@ -413,12 +454,166 @@
 ::Action:: [Suggested Action]
 ::Action:: [Suggested Action]</t>
   </si>
+  <si>
+    <t>Explore your ambitions for promotion and the criteria at AIA. Assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
+  </si>
+  <si>
+    <t>Discuss the importance of succession planning in your career and organisation. Evaluate potential successors, develop their skills, and create a smooth transition plan to ensure continuity and success.</t>
+  </si>
+  <si>
+    <t>Address your feelings of stagnation and explore potential opportunities for growth. Reassess your goals, identify new challenges, and develop a plan to reinvigorate your career journey.</t>
+  </si>
+  <si>
+    <t>Address stress and burnout in your professional life. Explore the underlying causes, identify coping strategies, and create a plan to enhance your resilience and overall well-being.</t>
+  </si>
+  <si>
+    <t>Examine your current role and identify areas where you could be more challenged. Create a plan to discuss these opportunities with your manager and take proactive steps to enhance your job satisfaction.</t>
+  </si>
+  <si>
+    <t>Discuss strategies to achieve a healthier work-life balance. Explore time management techniques, set boundaries, and create a plan that supports both your professional and personal well-being.</t>
+  </si>
+  <si>
+    <t>Focus on your ongoing professional growth. Identify areas for development, explore relevant resources, and create a plan to enhance your skills and stay competitive in your industry.</t>
+  </si>
+  <si>
+    <t>Discuss your leadership potential and explore strategies to grow your leadership skills. Identify key competencies, target areas for improvement, and create a plan to help you excel as a leader.</t>
+  </si>
+  <si>
+    <t>Understand the process of building a strong personal brand. We'll help you identify your unique selling points, develop a consistent message, and create a plan to promote yourself effectively across various platforms.</t>
+  </si>
+  <si>
+    <t>Evaluate your current performance and identify areas for improvement. Develop a tailored plan to enhance your productivity, efficiency, and overall work quality, setting you up for continued success.</t>
+  </si>
+  <si>
+    <t>Discuss the various AIA development programs available to support your growth. Identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
+  </si>
+  <si>
+    <t>Explore the habits that impact your professional and personal life. Identify areas for improvement and create a plan to cultivate healthier, more productive habits to support your success.</t>
+  </si>
+  <si>
+    <t>Focus on improving your time management skills. Explore various techniques, identify your priorities, and create a personalised plan to optimise your productivity and achieve a better work-life balance.</t>
+  </si>
+  <si>
+    <t>Navigate the transition to AIA. Discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
+  </si>
+  <si>
+    <t>Discuss strategies for successfully joining a new team. We'll explore effective communication, collaboration, and relationship-building techniques to help you make a positive first impression and integrate seamlessly.</t>
+  </si>
+  <si>
+    <t>Address your transition to a new team or role. We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>You are an internal career coach at AIA. Your aim is to guide me to identify specfic areas of personal and professional development to meet my short and long-term career aspirations, in AIA or elsewhere. Your tone should be professional, friendly and empathetic. Use UK english.</t>
+  </si>
+  <si>
+    <t>Me@AIA - Career</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --- Challenges ---</t>
+  </si>
+  <si>
+    <t>Work-life balance</t>
+  </si>
+  <si>
+    <t>Lack of stimulation</t>
+  </si>
+  <si>
+    <t>Discuss your aspirations, values, and strengths. Identify a career path that resonates with you, set realistic goals and create an action plan.</t>
+  </si>
+  <si>
+    <t>What shall we discuss?</t>
+  </si>
+  <si>
+    <t>I safeguard AIA's financial wellbeing by ensuring our products are well-designed and suitably priced. We also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
+  </si>
+  <si>
+    <t>I support and develop AIA's Premier Agency channel through programmes designed to raise the productivity and professionalism of our agency service.</t>
+  </si>
+  <si>
+    <t>I partner with the business to attract and retain the best people through workforce planning and recruitment, organisation culture and employee engagement, performance management and capability building, and rewards and recognition.</t>
+  </si>
+  <si>
+    <t>I provide effective and objective oversight of the risks faced by the Group and give assurance to management and the Board that the risks are being managed satisfactorily. Our work helps the Board to maintain an international standard of corporate governance.</t>
+  </si>
+  <si>
+    <t>I safeguard AIA’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. We are also responsible for all external reporting including statutory and regulatory filings.</t>
+  </si>
+  <si>
+    <t>I develop, deploy and support our regions with innovative technologies to help create a digital environment that is simpler, easier and more secure for our businesses and customers.</t>
+  </si>
+  <si>
+    <t>I help AIA to engage in a meaningful manner with customers and other stakeholders. I ensure the consistency of AIA’s messaging across all channels, design marketing campaigns to manage customer advocacy and experience, and use data insights to make key business decisions.</t>
+  </si>
+  <si>
+    <t>I support our customers, employees, agents and distribution partners across the buy, service and claims journeys by developing and delivering market leading experience through our underwriting, customer servicing and claims teams.</t>
+  </si>
+  <si>
+    <t>My focus is on developing and implementing data-driven, innovative strategies to enhance overall business performance. By leveraging digital technologies and analytics, I identify growth opportunities, optimise customer experience, and streamline operations. I collaborate with various departments to facilitate digital transformation and create a competitive advantage in an ever-evolving market landscape.</t>
+  </si>
+  <si>
+    <t>I support corporate clients by providing employee benefits, pensions and voluntary solutions to cover workforce needs and to assist with talent retention.</t>
+  </si>
+  <si>
+    <t>I collaborate and partner with banks, independent financial advisory firms, brokerage bodies and other third-party intermediates, to market AIA products through various distribution channels.</t>
+  </si>
+  <si>
+    <t>I ensure compliance with laws and regulations, managing legal risks, and providing expert advice on legal matters. I draft and review contracts, handle litigation, protect intellectual property, and offer guidance on corporate governance. Additionally, I support mergers and acquisitions, and maintain strong relationships with external counsel and regulatory authorities.</t>
+  </si>
+  <si>
+    <t>I manage policyholders’ assets and corporate assets to maximise risk-adjusted investment returns. In addition, I support product strategy functions in the development of competitive products by providing input on investment instruments and markets.</t>
+  </si>
+  <si>
+    <t>Topic Questions</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Take action.</t>
+  </si>
+  <si>
+    <t>Thanks for taking the time to explore your current role at AIA and career path. We are here to support and empower you to navigate your professional journey within our organisation. Our goal is to provide personalised guidance, resources, and opportunities to help you grow and thrive, in your current and future roles.
+We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.</t>
+  </si>
+  <si>
+    <t>personal_system_message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s </t>
+  </si>
+  <si>
+    <t>My name is {user_name}, I am a {band} in {function}. I am {position}.
+I have the following experience:
+{experience}
+My daily work involves:
+{function_detail}
+I would like to discuss: {topic_name}
+---
+For reference, this is information on the topic provided by AIA's internal guides:
+{aia_info}
+---
+This is further background based on two questions I have been asked:
+{question_1}
+{reply_1}
+{question_2}
+{reply_2}
+---
+Taking into consideration the above, guide my thought process through a sequence of questions and proposed answers. Please intitiate the thought-provoking sequence of questions by asking me one question and only ask the next one when an answer is provided. With each question, provide several suggestions.
+{question_guidance}
+The questions should be asked one at a time, only move onto the next question after I have replied. 
+Ask me exactly {max_questions} questions. 
+Our conversation should progress as follows:
+{question_format}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +625,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -452,10 +655,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -471,16 +675,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,65 +1044,87 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="8">
+        <v>57</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -880,172 +1134,594 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4B99F-D286-4F78-BAC8-23AC2E322EDE}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
-    <col min="5" max="5" width="88.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="42.77734375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="77.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="88.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="10">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="10">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="10">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="10">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="10">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="10">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="10">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="10">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="10">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="10">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1054,7 +1730,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,33 +1743,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
+      <c r="B2" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1104,15 +1780,15 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1123,18 +1799,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1142,43 +1818,35 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7E2F4BF8-9C1B-455E-A97B-EA51A27378EE}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{8AC66726-ED59-4CF3-85C4-52A114B1F2D3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1186,7 +1854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5990ADE6-0F99-4D0A-96A1-792BDD041915}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1196,114 +1866,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1332,55 +2002,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="902" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4292080B-500E-40D8-9A2E-C7780E721D85}"/>
+  <xr:revisionPtr revIDLastSave="938" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FC5751-ACF5-4C5B-A861-75EA07BFC914}"/>
   <bookViews>
-    <workbookView xWindow="20544" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="2268" yWindow="1464" windowWidth="32412" windowHeight="14400" activeTab="1" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="175">
   <si>
     <t>Intro</t>
   </si>
@@ -226,43 +226,6 @@
     <t>additional_question_no</t>
   </si>
   <si>
-    <t>[Acknowledge my situation with empathy, then Question 1, provided by you]
-[Answer 1, written by me]
-[150 word reply to Answer 1, then Question 2, provided by you]
-[Answer 2, written by me]
-...
-[150 word reply to Answer N-1, then Question N, provided by you]
-[Answer N, written by me]
-[150 word reply to Answer N]</t>
-  </si>
-  <si>
-    <t>Thriving in Your Role: A Guide for Employees Feeling Stuck
-Introduction:
-As an employee, there may be times when you feel stuck in your current role. This feeling can arise due to various reasons, such as limited growth opportunities, repetitive tasks, or lack of motivation. This guide is designed to help you overcome these challenges and make the most out of your current position.
-Self-Assessment:
-Begin by conducting a thorough self-assessment. Identify your strengths, weaknesses, interests, and long-term career goals. Reflect on your current role and how it aligns with your objectives. This will help you determine if you need to make changes or seek new opportunities within the organization.
-Seek Feedback:
-Proactively ask for feedback from your supervisor and colleagues. This will not only help you gain insight into your performance, but also help you understand how you are perceived within the team. Utilize this feedback to make improvements and find ways to excel in your role.
-Develop New Skills:
-Take advantage of any learning and development opportunities provided by the organization. This could be in the form of workshops, training courses, or mentorship programs. Acquiring new skills will not only make you more valuable to your current team, but also open up new opportunities within the organization. Employees can visit www.aia.com/careers.
-Take Initiative:
-Volunteer for new projects or take on additional responsibilities. This will demonstrate your commitment to growth and development, and may lead to new challenges and opportunities within the organization. Be proactive in suggesting improvements to processes or finding solutions to problems within your team.
-Network:
-Build relationships with colleagues across different departments and teams. Attend company events, join social clubs, or participate in interdepartmental projects. Networking will not only help you gain a broader perspective of the organization, but also expose you to potential opportunities for growth and collaboration.
-Communicate Your Aspirations:
-Talk to your manager about your career goals and aspirations. Share your accomplishments and express your interest in taking on new challenges. Open communication with your manager will help them better understand your ambitions and potentially create opportunities for advancement or development.
-Set Realistic Goals:
-Set short-term and long-term goals for yourself in your current role. Make these goals specific, measurable, achievable, relevant, and time-bound (SMART). Regularly review and adjust your goals to ensure they remain aligned with your career objectives.
-Stay Positive:
-Maintain a positive attitude and focus on your accomplishments, rather than dwelling on your perceived limitations. Engage in activities that help you maintain a healthy work-life balance and reduce stress, such as exercise, meditation, or pursuing hobbies outside of work.
-Consider Internal Mobility:
-Explore the possibility of transferring to a different department or team within the organization. This could provide you with a fresh perspective, new challenges, and the opportunity to develop new skills. Employees can find out more at www.aia.com/careers.
-Seek External Opportunities:
-If you have exhausted all internal avenues and still feel stuck in your role, it may be time to consider looking for external opportunities. This decision should not be taken lightly, as it involves weighing the pros and cons of leaving your current organization. However, if your career goals cannot be met within your current company, a change may be necessary to achieve growth and satisfaction.
-Conclusion:
-Feeling stuck in your role can be frustrating, but by taking proactive steps, seeking feedback, and continuously developing your skills, you can unlock new opportunities for growth and success. Remember, it's essential to maintain open communication with your manager and colleagues to ensure your career goals and aspirations are understood and supported.</t>
-  </si>
-  <si>
     <t>AIA development programs</t>
   </si>
   <si>
@@ -445,16 +408,6 @@
 Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine my career goals, and help me decide on some meaningful next steps I can take.</t>
   </si>
   <si>
-    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal AIA site pages if suitable.
-The summary should follow the format below, where the descriptions in [ ] should be generated by you. Please use github flavored markdown and use bullets if relevant.
-[Recap of our discussion, key concerns, problems and potential approaches, approximately 200 words]
-#### Action Plan
-Below are some suggestions of actions you can take. You understand your situation best, so please edit and use these as a starting point or create your own.
-::Action:: [Suggested Action]
-::Action:: [Suggested Action]
-::Action:: [Suggested Action]</t>
-  </si>
-  <si>
     <t>Explore your ambitions for promotion and the criteria at AIA. Assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
   </si>
   <si>
@@ -527,9 +480,6 @@
     <t>What shall we discuss?</t>
   </si>
   <si>
-    <t>I safeguard AIA's financial wellbeing by ensuring our products are well-designed and suitably priced. We also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
-  </si>
-  <si>
     <t>I support and develop AIA's Premier Agency channel through programmes designed to raise the productivity and professionalism of our agency service.</t>
   </si>
   <si>
@@ -537,9 +487,6 @@
   </si>
   <si>
     <t>I provide effective and objective oversight of the risks faced by the Group and give assurance to management and the Board that the risks are being managed satisfactorily. Our work helps the Board to maintain an international standard of corporate governance.</t>
-  </si>
-  <si>
-    <t>I safeguard AIA’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. We are also responsible for all external reporting including statutory and regulatory filings.</t>
   </si>
   <si>
     <t>I develop, deploy and support our regions with innovative technologies to help create a digital environment that is simpler, easier and more secure for our businesses and customers.</t>
@@ -577,9 +524,6 @@
   <si>
     <t>Thanks for taking the time to explore your current role at AIA and career path. We are here to support and empower you to navigate your professional journey within our organisation. Our goal is to provide personalised guidance, resources, and opportunities to help you grow and thrive, in your current and future roles.
 We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.</t>
-  </si>
-  <si>
-    <t>personal_system_message</t>
   </si>
   <si>
     <t xml:space="preserve">s </t>
@@ -607,6 +551,114 @@
 Ask me exactly {max_questions} questions. 
 Our conversation should progress as follows:
 {question_format}</t>
+  </si>
+  <si>
+    <t>Promotions are a combination of:
+- Business need for the role at a more senior band
+- Skills, experience, and impact
+- Interest and demonstrated commitment to learn the skills needed for the next level</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I intitatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to find other talent.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a smooth transition plan to ensure continuity and success.</t>
+  </si>
+  <si>
+    <t>Help me identify why I'm feeling stressed.
+Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
+Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
+Ask what I intitatives I have already taken, and what i'm doing to recover or adapt my workload.
+Ask if I have attended AIA's mental wellbing workship, and recommend me to sign up if I have not.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
+  </si>
+  <si>
+    <t>AIA offers mental wellbeing workshops for employees and managers. You can sign up at www.aia.com/mental-well-being sign-up.</t>
+  </si>
+  <si>
+    <t>AIA encourages…</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I intitatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask if I have discussed with my manager.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel a lack of stimulation or challenge, help me decide on some meaningful next steps I can feel more challenged, create a plan to discuss with my manager and take proactive steps to enhance my job satisfaction.</t>
+  </si>
+  <si>
+    <t>Help me identify what's challenging my work life balance.
+Ask what I intitatives I have already taken to improve it, and what i'm in control of.
+Ask what I am doing to manage my time and set boudaries
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me be clear on how I can improve my work-life balance and identify meaningful next steps to achieve a healthier work-life balance.</t>
+  </si>
+  <si>
+    <t>Help me identify areas for development and what resources are available to me.
+Ask what I intitatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify areas for development, explore relevant resources, and create a meaningful action plan to enhance my skills and stay competitive in my industry and role.</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and discuss my leadership potential.
+Ask what I intitatives I have already taken.
+Explore strategies to grow my leadership skills.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to refine my leadership potential and explore strategies to grow my leadership skills. By the end of our discussion, I shoul have identifed key competencies, target areas for improvement, and have an action plan to excel as a leader.</t>
+  </si>
+  <si>
+    <t>Help me understand how to build a strong personal brand.
+Help me to identify my unique selling points and develop a consistent message.
+Ask what I intitatives I have already taken.
+Ask what I am doing to further promote myself across the business and network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify my unique selling points, and create a plan to build a strong personal brand and promote myself effectively across various platforms.</t>
+  </si>
+  <si>
+    <t>Challenge my current performance and help me identify areas for improvement.
+Ask what I intitatives I have already taken.
+Ask what I am doing to enhance my productivity, efficiency and quality work.
+Ask what additional learning I am doing.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me develop a tailored plan to enhance my productivity, efficiency, and overall work quality, setting me up for continued success.</t>
+  </si>
+  <si>
+    <t>I safeguard AIA's financial wellbeing by ensuring our products are well-designed and suitably priced. I also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
+  </si>
+  <si>
+    <t>I safeguard AIA’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. I am also responsible for all external reporting including statutory and regulatory filings.</t>
+  </si>
+  <si>
+    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal AIA site pages if suitable.
+The summary should follow the format below, where the descriptions in [ ] should be generated by you, and the descriptions between % % will be provided by me. Please use github flavored markdown and use bullets if relevant.
+[Recap of our discussion, key concerns, problems and potential approaches, approximately 200 words]
+#### Action Plan
+Below are some suggestions of actions you can take. You understand your situation best, so please edit and use these as a starting point or create your own.
+::Action:: [Suggested Action]
+::Action:: [Suggested Action]
+::Action:: [Suggested Action]</t>
+  </si>
+  <si>
+    <t>[Brief introduction, then ask Question 1, provided by you]
+%Answer 1, written by me%
+[150 word reply to Answer 1, then Question 2, provided by you]
+%Answer 2, written by me%
+...
+[150 word reply to Answer N-1, then Question N, provided by you]
+%Answer N, written by me%
+[150 word reply to Answer N]</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I intitatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to further my network.
+If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
+- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
+- Skills, experience, and impact
+- Interest and demonstrated commitment to learn the skills needed for the next level
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,73 +1110,64 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>163</v>
+        <v>114</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1136,11 +1179,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4B99F-D286-4F78-BAC8-23AC2E322EDE}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,10 +1203,10 @@
         <v>26</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>46</v>
@@ -1192,7 +1235,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="1"/>
@@ -1201,43 +1244,43 @@
     </row>
     <row r="4" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G4" s="10">
         <v>5</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="G5" s="10">
         <v>5</v>
@@ -1249,19 +1292,19 @@
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G6" s="10">
         <v>5</v>
@@ -1270,7 +1313,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="1"/>
@@ -1279,20 +1322,20 @@
     </row>
     <row r="8" spans="1:9" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="G8" s="10">
         <v>5</v>
@@ -1300,24 +1343,24 @@
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>137</v>
+        <v>85</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="G9" s="10">
         <v>5</v>
@@ -1325,24 +1368,24 @@
       <c r="H9" s="1"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G10" s="10">
         <v>5</v>
@@ -1350,24 +1393,24 @@
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G11" s="10">
         <v>5</v>
@@ -1377,7 +1420,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="6"/>
@@ -1387,24 +1430,24 @@
       <c r="H12" s="1"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G13" s="10">
         <v>5</v>
@@ -1412,49 +1455,49 @@
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G14" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G15" s="10">
         <v>5</v>
@@ -1462,24 +1505,24 @@
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G16" s="10">
         <v>5</v>
@@ -1489,20 +1532,20 @@
     </row>
     <row r="17" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G17" s="10">
         <v>5</v>
@@ -1512,22 +1555,22 @@
     </row>
     <row r="18" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G18" s="10">
         <v>5</v>
@@ -1537,22 +1580,22 @@
     </row>
     <row r="19" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G19" s="10">
         <v>5</v>
@@ -1562,7 +1605,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="6"/>
@@ -1574,20 +1617,20 @@
     </row>
     <row r="21" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G21" s="10">
         <v>5</v>
@@ -1597,20 +1640,20 @@
     </row>
     <row r="22" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G22" s="10">
         <v>5</v>
@@ -1620,22 +1663,22 @@
     </row>
     <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G23" s="10">
         <v>5</v>
@@ -1645,20 +1688,20 @@
     </row>
     <row r="24" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G24" s="10">
         <v>5</v>
@@ -1667,18 +1710,18 @@
     </row>
     <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G25" s="10">
         <v>5</v>
@@ -1687,7 +1730,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="1"/>
@@ -1700,16 +1743,16 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G27" s="10">
         <v>5</v>
@@ -1730,7 +1773,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1763,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1799,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
@@ -1810,7 +1853,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1818,13 +1861,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1854,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5990ADE6-0F99-4D0A-96A1-792BDD041915}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1877,7 +1920,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1885,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1893,7 +1936,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1901,7 +1944,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1909,7 +1952,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1917,7 +1960,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1925,7 +1968,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1933,7 +1976,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -1941,7 +1984,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1949,7 +1992,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1957,7 +2000,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1965,7 +2008,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1973,7 +2016,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="938" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FC5751-ACF5-4C5B-A861-75EA07BFC914}"/>
+  <xr:revisionPtr revIDLastSave="1150" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5772F259-59B0-428C-A757-E99C38F57FCF}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="1464" windowWidth="32412" windowHeight="14400" activeTab="1" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="4" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
-    <sheet name="topic_prompts" sheetId="5" r:id="rId2"/>
-    <sheet name="pages" sheetId="2" r:id="rId3"/>
-    <sheet name="functions" sheetId="3" r:id="rId4"/>
-    <sheet name="bands" sheetId="6" r:id="rId5"/>
+    <sheet name="pages" sheetId="2" r:id="rId2"/>
+    <sheet name="functions" sheetId="3" r:id="rId3"/>
+    <sheet name="bands" sheetId="6" r:id="rId4"/>
+    <sheet name="topic_prompts" sheetId="5" r:id="rId5"/>
+    <sheet name="aia_info" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="185">
   <si>
     <t>Intro</t>
   </si>
@@ -108,9 +109,6 @@
     <t>Succession planning</t>
   </si>
   <si>
-    <t>Retention and engagement</t>
-  </si>
-  <si>
     <t>intro_prompt</t>
   </si>
   <si>
@@ -178,9 +176,6 @@
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t>question1</t>
   </si>
   <si>
     <t>question2</t>
@@ -265,9 +260,6 @@
     <t>Building better habits</t>
   </si>
   <si>
-    <t>Joining a new team</t>
-  </si>
-  <si>
     <t>Changing team or role</t>
   </si>
   <si>
@@ -277,115 +269,40 @@
     <t>Taking on new responsibilities</t>
   </si>
   <si>
-    <t>Changing region</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>How long have you been in your current position?</t>
-  </si>
-  <si>
     <t>What specific promotion or career advancement are you targeting?</t>
   </si>
   <si>
     <t>Are there any potential successors already within the organisation or team?</t>
   </si>
   <si>
-    <t>What are your current responsibilities?</t>
-  </si>
-  <si>
-    <t>Can you describe the aspects of your role that make you feel stuck or stagnant?</t>
-  </si>
-  <si>
-    <t>What aspects of your job do you find most stressful or overwhelming?</t>
-  </si>
-  <si>
-    <t>Have you experienced any symptoms of burnout or signs of excessive stress?</t>
-  </si>
-  <si>
-    <t>How long have you been in your current position and what are your primary responsibilities?</t>
-  </si>
-  <si>
     <t>What specific areas of your role do you find lacking in challenge or stimulation?</t>
   </si>
   <si>
-    <t>Can you describe your typical work week and the demands it places on your personal life?</t>
-  </si>
-  <si>
     <t>What specific aspects of your work-life balance do you want to improve?</t>
   </si>
   <si>
-    <t>What are your key strengths and areas for improvement in your current role?</t>
-  </si>
-  <si>
     <t>Are there specific skills or qualifications you want to acquire to enhance your professional growth?</t>
   </si>
   <si>
-    <t>Have you held any leadership positions in the past or are currently in a leadership role?</t>
-  </si>
-  <si>
-    <t>What aspects of leadership do you want to improve or develop further?</t>
-  </si>
-  <si>
-    <t>How would you currently describe your personal brand or professional reputation?</t>
-  </si>
-  <si>
     <t>What specific aspects of your personal brand do you want to focus on and enhance?</t>
   </si>
   <si>
-    <t>Can you describe your current level of performance and any feedback you've received?</t>
-  </si>
-  <si>
     <t>What specific performance improvements do you want to achieve in the short and long term?</t>
   </si>
   <si>
-    <t>Do you have any specific career goals and areas for development within AIA?</t>
-  </si>
-  <si>
-    <t>Can you identify any habits that might be negatively affecting your professional or personal life?</t>
-  </si>
-  <si>
-    <t>What new habits would you like to develop to improve your overall well-being and success?</t>
-  </si>
-  <si>
-    <t>How do you currently prioritise and manage your tasks and responsibilities?</t>
-  </si>
-  <si>
     <t>Are there specific time management challenges or issues you would like to address?</t>
   </si>
   <si>
-    <t>What is your new role within AIA and what are your key responsibilities?</t>
-  </si>
-  <si>
-    <t>Can you provide some background on the new team you are joining, including its size and function?</t>
-  </si>
-  <si>
-    <t>What is your previous role and what will be your new role within the organisation?</t>
-  </si>
-  <si>
     <t>Are there any specific challenges or concerns you anticipate with this change in team or role?</t>
   </si>
   <si>
-    <t>What is the new region you will be working in and what prompted the move?</t>
-  </si>
-  <si>
-    <t>Are there any cultural, language, or logistical challenges you anticipate in the new region?</t>
-  </si>
-  <si>
-    <t>What new responsibilities have been added to your role and how do they align with your existing skill set?</t>
-  </si>
-  <si>
     <t>Do you have any concerns about managing these new responsibilities effectively?</t>
   </si>
   <si>
-    <t>Can you describe the current state of employee retention and engagement within your team or organisation?</t>
-  </si>
-  <si>
     <t>Are there specific challenges or factors contributing to employee turnover or disengagement?</t>
-  </si>
-  <si>
-    <t>What are your short-term and long-term career aspirations or objectives that you would like to focus on during our  session?</t>
   </si>
   <si>
     <t>coaching_prompt</t>
@@ -401,132 +318,225 @@
     <t>question_guidance</t>
   </si>
   <si>
-    <t>Challenge me and help me refine my career aspirations and objectives.
+    <t>You are an internal career coach at AIA. Your aim is to guide me to identify specfic areas of personal and professional development to meet my short and long-term career aspirations, in AIA or elsewhere. Your tone should be professional, friendly and empathetic. Use UK english.</t>
+  </si>
+  <si>
+    <t>Me@AIA - Career</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --- Challenges ---</t>
+  </si>
+  <si>
+    <t>Work-life balance</t>
+  </si>
+  <si>
+    <t>Lack of stimulation</t>
+  </si>
+  <si>
+    <t>What shall we discuss?</t>
+  </si>
+  <si>
+    <t>I support and develop AIA's Premier Agency channel through programmes designed to raise the productivity and professionalism of our agency service.</t>
+  </si>
+  <si>
+    <t>I partner with the business to attract and retain the best people through workforce planning and recruitment, organisation culture and employee engagement, performance management and capability building, and rewards and recognition.</t>
+  </si>
+  <si>
+    <t>I provide effective and objective oversight of the risks faced by the Group and give assurance to management and the Board that the risks are being managed satisfactorily. Our work helps the Board to maintain an international standard of corporate governance.</t>
+  </si>
+  <si>
+    <t>I develop, deploy and support our regions with innovative technologies to help create a digital environment that is simpler, easier and more secure for our businesses and customers.</t>
+  </si>
+  <si>
+    <t>I help AIA to engage in a meaningful manner with customers and other stakeholders. I ensure the consistency of AIA’s messaging across all channels, design marketing campaigns to manage customer advocacy and experience, and use data insights to make key business decisions.</t>
+  </si>
+  <si>
+    <t>I support our customers, employees, agents and distribution partners across the buy, service and claims journeys by developing and delivering market leading experience through our underwriting, customer servicing and claims teams.</t>
+  </si>
+  <si>
+    <t>My focus is on developing and implementing data-driven, innovative strategies to enhance overall business performance. By leveraging digital technologies and analytics, I identify growth opportunities, optimise customer experience, and streamline operations. I collaborate with various departments to facilitate digital transformation and create a competitive advantage in an ever-evolving market landscape.</t>
+  </si>
+  <si>
+    <t>I support corporate clients by providing employee benefits, pensions and voluntary solutions to cover workforce needs and to assist with talent retention.</t>
+  </si>
+  <si>
+    <t>I collaborate and partner with banks, independent financial advisory firms, brokerage bodies and other third-party intermediates, to market AIA products through various distribution channels.</t>
+  </si>
+  <si>
+    <t>I ensure compliance with laws and regulations, managing legal risks, and providing expert advice on legal matters. I draft and review contracts, handle litigation, protect intellectual property, and offer guidance on corporate governance. Additionally, I support mergers and acquisitions, and maintain strong relationships with external counsel and regulatory authorities.</t>
+  </si>
+  <si>
+    <t>I manage policyholders’ assets and corporate assets to maximise risk-adjusted investment returns. In addition, I support product strategy functions in the development of competitive products by providing input on investment instruments and markets.</t>
+  </si>
+  <si>
+    <t>Topic Questions</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Take action.</t>
+  </si>
+  <si>
+    <t>Thanks for taking the time to explore your current role at AIA and career path. We are here to support and empower you to navigate your professional journey within our organisation. Our goal is to provide personalised guidance, resources, and opportunities to help you grow and thrive, in your current and future roles.
+We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s </t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I intitatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to find other talent.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a smooth transition plan to ensure continuity and success.</t>
+  </si>
+  <si>
+    <t>Help me identify why I'm feeling stressed.
+Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
+Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
+Ask what I intitatives I have already taken, and what i'm doing to recover or adapt my workload.
+Ask if I have attended AIA's mental wellbing workship, and recommend me to sign up if I have not.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I intitatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask if I have discussed with my manager.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel a lack of stimulation or challenge, help me decide on some meaningful next steps I can feel more challenged, create a plan to discuss with my manager and take proactive steps to enhance my job satisfaction.</t>
+  </si>
+  <si>
+    <t>Help me identify areas for development and what resources are available to me.
 Ask what I intitatives I have already taken.
 Ask what I am doing to further my learning and skillset.
 Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine my career goals, and help me decide on some meaningful next steps I can take.</t>
-  </si>
-  <si>
-    <t>Explore your ambitions for promotion and the criteria at AIA. Assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
-  </si>
-  <si>
-    <t>Discuss the importance of succession planning in your career and organisation. Evaluate potential successors, develop their skills, and create a smooth transition plan to ensure continuity and success.</t>
-  </si>
-  <si>
-    <t>Address your feelings of stagnation and explore potential opportunities for growth. Reassess your goals, identify new challenges, and develop a plan to reinvigorate your career journey.</t>
-  </si>
-  <si>
-    <t>Address stress and burnout in your professional life. Explore the underlying causes, identify coping strategies, and create a plan to enhance your resilience and overall well-being.</t>
-  </si>
-  <si>
-    <t>Examine your current role and identify areas where you could be more challenged. Create a plan to discuss these opportunities with your manager and take proactive steps to enhance your job satisfaction.</t>
-  </si>
-  <si>
-    <t>Discuss strategies to achieve a healthier work-life balance. Explore time management techniques, set boundaries, and create a plan that supports both your professional and personal well-being.</t>
-  </si>
-  <si>
-    <t>Focus on your ongoing professional growth. Identify areas for development, explore relevant resources, and create a plan to enhance your skills and stay competitive in your industry.</t>
-  </si>
-  <si>
-    <t>Discuss your leadership potential and explore strategies to grow your leadership skills. Identify key competencies, target areas for improvement, and create a plan to help you excel as a leader.</t>
-  </si>
-  <si>
-    <t>Understand the process of building a strong personal brand. We'll help you identify your unique selling points, develop a consistent message, and create a plan to promote yourself effectively across various platforms.</t>
-  </si>
-  <si>
-    <t>Evaluate your current performance and identify areas for improvement. Develop a tailored plan to enhance your productivity, efficiency, and overall work quality, setting you up for continued success.</t>
-  </si>
-  <si>
-    <t>Discuss the various AIA development programs available to support your growth. Identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
-  </si>
-  <si>
-    <t>Explore the habits that impact your professional and personal life. Identify areas for improvement and create a plan to cultivate healthier, more productive habits to support your success.</t>
-  </si>
-  <si>
-    <t>Focus on improving your time management skills. Explore various techniques, identify your priorities, and create a personalised plan to optimise your productivity and achieve a better work-life balance.</t>
-  </si>
-  <si>
-    <t>Navigate the transition to AIA. Discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
-  </si>
-  <si>
-    <t>Discuss strategies for successfully joining a new team. We'll explore effective communication, collaboration, and relationship-building techniques to help you make a positive first impression and integrate seamlessly.</t>
-  </si>
-  <si>
-    <t>Address your transition to a new team or role. We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>You are an internal career coach at AIA. Your aim is to guide me to identify specfic areas of personal and professional development to meet my short and long-term career aspirations, in AIA or elsewhere. Your tone should be professional, friendly and empathetic. Use UK english.</t>
-  </si>
-  <si>
-    <t>Me@AIA - Career</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  --- Challenges ---</t>
-  </si>
-  <si>
-    <t>Work-life balance</t>
-  </si>
-  <si>
-    <t>Lack of stimulation</t>
-  </si>
-  <si>
-    <t>Discuss your aspirations, values, and strengths. Identify a career path that resonates with you, set realistic goals and create an action plan.</t>
-  </si>
-  <si>
-    <t>What shall we discuss?</t>
-  </si>
-  <si>
-    <t>I support and develop AIA's Premier Agency channel through programmes designed to raise the productivity and professionalism of our agency service.</t>
-  </si>
-  <si>
-    <t>I partner with the business to attract and retain the best people through workforce planning and recruitment, organisation culture and employee engagement, performance management and capability building, and rewards and recognition.</t>
-  </si>
-  <si>
-    <t>I provide effective and objective oversight of the risks faced by the Group and give assurance to management and the Board that the risks are being managed satisfactorily. Our work helps the Board to maintain an international standard of corporate governance.</t>
-  </si>
-  <si>
-    <t>I develop, deploy and support our regions with innovative technologies to help create a digital environment that is simpler, easier and more secure for our businesses and customers.</t>
-  </si>
-  <si>
-    <t>I help AIA to engage in a meaningful manner with customers and other stakeholders. I ensure the consistency of AIA’s messaging across all channels, design marketing campaigns to manage customer advocacy and experience, and use data insights to make key business decisions.</t>
-  </si>
-  <si>
-    <t>I support our customers, employees, agents and distribution partners across the buy, service and claims journeys by developing and delivering market leading experience through our underwriting, customer servicing and claims teams.</t>
-  </si>
-  <si>
-    <t>My focus is on developing and implementing data-driven, innovative strategies to enhance overall business performance. By leveraging digital technologies and analytics, I identify growth opportunities, optimise customer experience, and streamline operations. I collaborate with various departments to facilitate digital transformation and create a competitive advantage in an ever-evolving market landscape.</t>
-  </si>
-  <si>
-    <t>I support corporate clients by providing employee benefits, pensions and voluntary solutions to cover workforce needs and to assist with talent retention.</t>
-  </si>
-  <si>
-    <t>I collaborate and partner with banks, independent financial advisory firms, brokerage bodies and other third-party intermediates, to market AIA products through various distribution channels.</t>
-  </si>
-  <si>
-    <t>I ensure compliance with laws and regulations, managing legal risks, and providing expert advice on legal matters. I draft and review contracts, handle litigation, protect intellectual property, and offer guidance on corporate governance. Additionally, I support mergers and acquisitions, and maintain strong relationships with external counsel and regulatory authorities.</t>
-  </si>
-  <si>
-    <t>I manage policyholders’ assets and corporate assets to maximise risk-adjusted investment returns. In addition, I support product strategy functions in the development of competitive products by providing input on investment instruments and markets.</t>
-  </si>
-  <si>
-    <t>Topic Questions</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Take action.</t>
-  </si>
-  <si>
-    <t>Thanks for taking the time to explore your current role at AIA and career path. We are here to support and empower you to navigate your professional journey within our organisation. Our goal is to provide personalised guidance, resources, and opportunities to help you grow and thrive, in your current and future roles.
-We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s </t>
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify areas for development, explore relevant resources, and create a meaningful action plan to enhance my skills and stay competitive in my industry and role.</t>
+  </si>
+  <si>
+    <t>Help me understand how to build a strong personal brand.
+Help me to identify my unique selling points and develop a consistent message.
+Ask what I intitatives I have already taken.
+Ask what I am doing to further promote myself across the business and network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify my unique selling points, and create a plan to build a strong personal brand and promote myself effectively across various platforms.</t>
+  </si>
+  <si>
+    <t>Challenge my current performance and help me identify areas for improvement.
+Ask what I intitatives I have already taken.
+Ask what I am doing to enhance my productivity, efficiency and quality work.
+Ask what additional learning I am doing.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me develop a tailored plan to enhance my productivity, efficiency, and overall work quality, setting me up for continued success.</t>
+  </si>
+  <si>
+    <t>I safeguard AIA's financial wellbeing by ensuring our products are well-designed and suitably priced. I also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
+  </si>
+  <si>
+    <t>I safeguard AIA’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. I am also responsible for all external reporting including statutory and regulatory filings.</t>
+  </si>
+  <si>
+    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal AIA site pages if suitable.
+The summary should follow the format below, where the descriptions in [ ] should be generated by you, and the descriptions between % % will be provided by me. Please use github flavored markdown and use bullets if relevant.
+[Recap of our discussion, key concerns, problems and potential approaches, approximately 200 words]
+#### Action Plan
+Below are some suggestions of actions you can take. You understand your situation best, so please edit and use these as a starting point or create your own.
+::Action:: [Suggested Action]
+::Action:: [Suggested Action]
+::Action:: [Suggested Action]</t>
+  </si>
+  <si>
+    <t>[Brief introduction, then ask Question 1, provided by you]
+%Answer 1, written by me%
+[150 word reply to Answer 1, then Question 2, provided by you]
+%Answer 2, written by me%
+...
+[150 word reply to Answer N-1, then Question N, provided by you]
+%Answer N, written by me%
+[150 word reply to Answer N]</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>promotions</t>
+  </si>
+  <si>
+    <t>mental_wellbeing</t>
+  </si>
+  <si>
+    <t>#### Learning
+Our learning culture actively supports people in their current roles, while providing a platform for growth and development within AIA. Our focus on learning is a key part of our ambition to ensure our people can upskill, reskill, work more flexibly and adapt to the changing world of work. We take a holistic approach to learning and development that includes knowledge and skills accumulated from on-the-job experiences, mobility, collaborative projects, structured virtual lessons and digital self-leaming, supported by mentoring and coaching. 
+We believe that career mobility and assignments in different business units or functions provide our employees with new opportunities. These assignments serve as platforms to learn new skills and help develop the individual's AIA network. 
+To ensure that we continue to develop talent for the future, we continuously research the skills and knowledge requirements of our industry and review feedback from our employees, to design the programmes that address these needs. In addition, our people are required to regularly complete mandatory training on a range of technical, governance and conduct-related topics. 
+We have launched, and are in the process of designing additional programmes to incubate new talent capabilities and upskill employees in core lines of business across the Group including the AIA Analytics Academy which focuses on building data analytics and business analysis capability across all levels in AIA. The "Converge' learning journey is a bespoke 10-month reskilling programme with apprenticeship opportunities for employees to equip them for business analysis roles. 
+We also upskill senior leaders with a stronger understanding of the power of analytics through the "Analytics for Leaders" programme. The AIA Agile Academy, which currently provides two reskilling programmes — the "Agile Practitioner" and the "Agile Team Lead" — to help AIA build internal capability to drive business transformation. The AIA Distribution Leadership Programme, which provides a platform for our most senior distribution leaders to further develop their distribution skill sets. 
+Digital content and delivery methods play an important role in shaping a culture of continuous learning at AIA. All our business units provide employees with access to the AIA Learning Hub, an online platform which provides access to thousands of digital learning courses. In 2022, we curated digital learning programmes with over 110 modules to support learning needs of employees in management and specialist career tracks. 
+AIA Learning Hub can be accessed at www.aia.com/learninghub.
+You can sign up for 'Agile Team Lead' here www.aia.com/agile-sign-up
+You can sign up for 'Agile Practitioner' here www.aia.com/agile-sign-up
+You can sign up for 'AIA Distribution Leadership' here www.aia.com/distro_leader_sign-up</t>
+  </si>
+  <si>
+    <t>### Promotions
+Promotions are a combination of:
+- Business need for the role at a more senior band
+- Skills, experience, and impact
+- Interest and demonstrated commitment to learn the skills needed for the next level
+Promotion criteria is available here: www.aia.com/promotion_criteria</t>
+  </si>
+  <si>
+    <t>### Mental Well-being
+AIA offers mental wellbeing workshops for employees and managers. 
+You can sign up at www.aia.com/mental-well-being sign-up.</t>
+  </si>
+  <si>
+    <t>question1</t>
+  </si>
+  <si>
+    <t>What are your short-term and long-term career aspirations or objectives that you would like to focus on during our  session?</t>
+  </si>
+  <si>
+    <t>Can you describe the aspects of your role that make you feel stuck or stagnant?</t>
+  </si>
+  <si>
+    <t>What aspects of your job do you find most stressful or overwhelming?</t>
+  </si>
+  <si>
+    <t>Can you describe your typical work week and the demands it places on your personal life?</t>
+  </si>
+  <si>
+    <t>How would you currently describe your personal brand or professional reputation?</t>
+  </si>
+  <si>
+    <t>Can you describe your current level of performance and any feedback you've received?</t>
+  </si>
+  <si>
+    <t>Do you have any specific career goals and areas for development within AIA?</t>
+  </si>
+  <si>
+    <t>Can you identify any habits that might be negatively affecting your professional or personal life?</t>
+  </si>
+  <si>
+    <t>How do you currently prioritise and manage your tasks and responsibilities?</t>
+  </si>
+  <si>
+    <t>What is your new role within AIA and what are your key responsibilities?</t>
+  </si>
+  <si>
+    <t>What is your previous role and what will be your new role within the organisation?</t>
+  </si>
+  <si>
+    <t>What new responsibilities have been added to your role and how do they align with your existing skill set?</t>
+  </si>
+  <si>
+    <t>Can you describe the current state of employee retention and engagement within your team or organisation?</t>
   </si>
   <si>
     <t>My name is {user_name}, I am a {band} in {function}. I am {position}.
@@ -536,7 +546,6 @@
 {function_detail}
 I would like to discuss: {topic_name}
 ---
-For reference, this is information on the topic provided by AIA's internal guides:
 {aia_info}
 ---
 This is further background based on two questions I have been asked:
@@ -553,52 +562,81 @@
 {question_format}</t>
   </si>
   <si>
-    <t>Promotions are a combination of:
-- Business need for the role at a more senior band
-- Skills, experience, and impact
-- Interest and demonstrated commitment to learn the skills needed for the next level</t>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>### Purpose Statement
+AIA's Purpose is to help people live Healthier, Longer, Better Lives, in every community in which we live and work, with products and policies that don't just protect lives but help make lives healthier, longer and better.</t>
+  </si>
+  <si>
+    <t>mission
+promotions
+learning</t>
+  </si>
+  <si>
+    <t>mission
+learning</t>
+  </si>
+  <si>
+    <t>promotions
+learning
+mission</t>
+  </si>
+  <si>
+    <t>learning
+mental_wellbeing
+mission</t>
+  </si>
+  <si>
+    <t>learning
+promotions
+mission</t>
+  </si>
+  <si>
+    <t>learning
+promotions
+mental_wellbeing
+mission</t>
+  </si>
+  <si>
+    <t>learning
+mental_wellbeing
+promotions
+mission</t>
+  </si>
+  <si>
+    <t>Challenge me and help me refine my career aspirations and objectives.
+Help me identify my purpose, strengths, and values.
+Ask what I intitatives I have already taken.
+Ask what I am doing to further my learning and skillset, point me to AIA resources where appropiate.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine my career goals, and help me decide on some meaningful next steps I can take.</t>
   </si>
   <si>
     <t>Challenge my answers, and ask relevant questions for a deeper understanding.
 Ask what I intitatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask what I have been doing to find other talent.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a smooth transition plan to ensure continuity and success.</t>
-  </si>
-  <si>
-    <t>Help me identify why I'm feeling stressed.
-Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
-Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
-Ask what I intitatives I have already taken, and what i'm doing to recover or adapt my workload.
-Ask if I have attended AIA's mental wellbing workship, and recommend me to sign up if I have not.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
-  </si>
-  <si>
-    <t>AIA offers mental wellbeing workshops for employees and managers. You can sign up at www.aia.com/mental-well-being sign-up.</t>
-  </si>
-  <si>
-    <t>AIA encourages…</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask if I have discussed with my manager.
+Ask what I am doing to further my learning and skillset, point me to AIA resources where appropiate.
 Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel a lack of stimulation or challenge, help me decide on some meaningful next steps I can feel more challenged, create a plan to discuss with my manager and take proactive steps to enhance my job satisfaction.</t>
+- Skills, experience, and impact
+- Interest and demonstrated commitment to learn the skills needed for the next level
+If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
+- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
+  </si>
+  <si>
+    <t>What symptoms of burnout or signs of excessive stress do you experience regularly?</t>
   </si>
   <si>
     <t>Help me identify what's challenging my work life balance.
 Ask what I intitatives I have already taken to improve it, and what i'm in control of.
-Ask what I am doing to manage my time and set boudaries
+Ask what I am doing to manage my time and set boudaries.
 Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me be clear on how I can improve my work-life balance and identify meaningful next steps to achieve a healthier work-life balance.</t>
   </si>
   <si>
-    <t>Help me identify areas for development and what resources are available to me.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify areas for development, explore relevant resources, and create a meaningful action plan to enhance my skills and stay competitive in my industry and role.</t>
+    <t>Have you identified any areas for improvement in your current role?</t>
+  </si>
+  <si>
+    <t>Are there any specific aspects of leadership you want to improve or develop further?</t>
   </si>
   <si>
     <t>Challenge my answers, and discuss my leadership potential.
@@ -606,59 +644,97 @@
 Explore strategies to grow my leadership skills.
 Ask what I am doing to further my learning and skillset.
 Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to refine my leadership potential and explore strategies to grow my leadership skills. By the end of our discussion, I shoul have identifed key competencies, target areas for improvement, and have an action plan to excel as a leader.</t>
-  </si>
-  <si>
-    <t>Help me understand how to build a strong personal brand.
-Help me to identify my unique selling points and develop a consistent message.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further promote myself across the business and network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify my unique selling points, and create a plan to build a strong personal brand and promote myself effectively across various platforms.</t>
-  </si>
-  <si>
-    <t>Challenge my current performance and help me identify areas for improvement.
-Ask what I intitatives I have already taken.
-Ask what I am doing to enhance my productivity, efficiency and quality work.
-Ask what additional learning I am doing.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me develop a tailored plan to enhance my productivity, efficiency, and overall work quality, setting me up for continued success.</t>
-  </si>
-  <si>
-    <t>I safeguard AIA's financial wellbeing by ensuring our products are well-designed and suitably priced. I also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
-  </si>
-  <si>
-    <t>I safeguard AIA’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. I am also responsible for all external reporting including statutory and regulatory filings.</t>
-  </si>
-  <si>
-    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal AIA site pages if suitable.
-The summary should follow the format below, where the descriptions in [ ] should be generated by you, and the descriptions between % % will be provided by me. Please use github flavored markdown and use bullets if relevant.
-[Recap of our discussion, key concerns, problems and potential approaches, approximately 200 words]
-#### Action Plan
-Below are some suggestions of actions you can take. You understand your situation best, so please edit and use these as a starting point or create your own.
-::Action:: [Suggested Action]
-::Action:: [Suggested Action]
-::Action:: [Suggested Action]</t>
-  </si>
-  <si>
-    <t>[Brief introduction, then ask Question 1, provided by you]
-%Answer 1, written by me%
-[150 word reply to Answer 1, then Question 2, provided by you]
-%Answer 2, written by me%
-...
-[150 word reply to Answer N-1, then Question N, provided by you]
-%Answer N, written by me%
-[150 word reply to Answer N]</t>
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to refine my leadership potential and explore strategies to grow my leadership skills. By the end of our discussion, I should have identifed key competencies, target areas for improvement, and have an action plan to excel as a leader.</t>
+  </si>
+  <si>
+    <t>Ask what I development programs I have already taken.
+Ask me about my career goals, and help me identify what learning programs would be most appropiate and useful.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some AIA development programs to sign up for, and prompt me to take action.</t>
+  </si>
+  <si>
+    <t>Are there any new habits would you like to develop to improve your overall well-being and success?</t>
+  </si>
+  <si>
+    <t>Ask me about what habits are working well now, and which could be improved.
+Help me identify the habits that impact my professional and personal life.
+Hep me identify areas for improvement and habits that I should start or stop.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to identify areas for improvement and create a plan to cultivat healtheir, more productive habits to support my success.</t>
   </si>
   <si>
     <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask what I have been doing to further my network.
-If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
-- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
-- Skills, experience, and impact
-- Interest and demonstrated commitment to learn the skills needed for the next level
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
+Help me explore time management techniques and identify my priorities.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to create a personalised action plan to optimise my productivity and achieve a better work life balance.</t>
+  </si>
+  <si>
+    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new role and responsibility.
+Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and responsibilities.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into a new role.</t>
+  </si>
+  <si>
+    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new team and responsibility.
+Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and responsibilities.
+Help me plan action steps to ensure a smooth and successful transition.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into a new role.</t>
+  </si>
+  <si>
+    <t>TBC…</t>
+  </si>
+  <si>
+    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new team and responsibility.
+Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and team expectations and responsibilities.
+Help me plan action steps to ensure a smooth and successful transition.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into my new responsibiliites.</t>
+  </si>
+  <si>
+    <t>We'll discuss your aspirations and purpose. Identify a career path that resonates with you, set realistic goals and create an action plan.</t>
+  </si>
+  <si>
+    <t>We'll explore your ambitions for promotion and the criteria at AIA. Assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
+  </si>
+  <si>
+    <t>We'll discuss the importance of succession planning in your career and organisation. Evaluate potential successors, develop their skills, and create a smooth transition plan to ensure continuity and success.</t>
+  </si>
+  <si>
+    <t>We'll address your feelings of stagnation and explore potential opportunities for growth. Reassess your goals, identify new challenges, and develop a plan to reinvigorate your career journey.</t>
+  </si>
+  <si>
+    <t>We'll address stress and burnout in your professional life. Explore the underlying causes, identify coping strategies, and create a plan to enhance your resilience and overall well-being.</t>
+  </si>
+  <si>
+    <t>We'll examine your current role and identify areas where you could be more challenged. Create a plan to discuss these opportunities with your manager and take proactive steps to enhance your job satisfaction.</t>
+  </si>
+  <si>
+    <t>We'll discuss strategies to achieve a healthier work-life balance. Explore time management techniques, set boundaries, and create a plan that supports both your professional and personal well-being.</t>
+  </si>
+  <si>
+    <t>We'll focus on your ongoing professional growth. Identify areas for development, explore relevant resources, and create a plan to enhance your skills and stay competitive in your industry.</t>
+  </si>
+  <si>
+    <t>We'll discuss your leadership potential and explore strategies to grow your leadership skills. Identify key competencies, target areas for improvement, and create a plan to help you excel as a leader.</t>
+  </si>
+  <si>
+    <t>We'll understand the process of building a strong personal brand. We'll help you identify your unique selling points, develop a consistent message, and create a plan to promote yourself effectively across various platforms.</t>
+  </si>
+  <si>
+    <t>We'll evaluate your current performance and identify areas for improvement. Develop a tailored plan to enhance your productivity, efficiency, and overall work quality, setting you up for continued success.</t>
+  </si>
+  <si>
+    <t>We'll discuss the various AIA development programs available to support your growth. Identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
+  </si>
+  <si>
+    <t>We'll explore the habits that impact your professional and personal life. Identify areas for improvement and create a plan to cultivate healthier, more productive habits to support your success.</t>
+  </si>
+  <si>
+    <t>We'll focus on improving your time management skills. Explore various techniques, identify your priorities, and create a personalised plan to optimise your productivity and achieve a better work-life balance.</t>
+  </si>
+  <si>
+    <t>We'll navigate the transition to AIA. Discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
+  </si>
+  <si>
+    <t>We'll address your transition to a new team or role. We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
+  </si>
+  <si>
+    <t>We'll address your new responsibilities. We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
   </si>
 </sst>
 </file>
@@ -711,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -762,6 +838,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -778,10 +861,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1083,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,62 +1175,62 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="7">
         <v>3</v>
@@ -1159,15 +1238,15 @@
     </row>
     <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1176,599 +1255,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4B99F-D286-4F78-BAC8-23AC2E322EDE}">
-  <dimension ref="A1:I28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="42.77734375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="53.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="77.44140625" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="88.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="10">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="216" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="10">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="10">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="10">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="10">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="10">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="10">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="10">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="10">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="10">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="10">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="10">
-        <v>5</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="10">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="10">
-        <v>5</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="10">
-        <v>5</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="10">
-        <v>5</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="10">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="10">
-        <v>5</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="10">
-        <v>5</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B67F92-929D-4748-A060-6C905D3C4127}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1786,16 +1272,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -1806,13 +1292,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1831,7 +1317,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1842,18 +1328,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1861,13 +1347,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1893,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5990ADE6-0F99-4D0A-96A1-792BDD041915}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1909,7 +1395,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -1917,10 +1403,10 @@
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1928,15 +1414,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1944,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1952,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1960,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1968,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1976,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -1984,7 +1470,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1992,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2000,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -2008,7 +1494,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2016,7 +1502,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2029,7 +1515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB32C457-BB1C-43B6-85B5-79C1542A27FD}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -2045,55 +1531,654 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4B99F-D286-4F78-BAC8-23AC2E322EDE}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="77.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="88.21875" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>41</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="10">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="10">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="10">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="10">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="10">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="10">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="10">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="10">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="10">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="10">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65851DD-2F33-46F0-91C4-1CC85B19859B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="104.44140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1150" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5772F259-59B0-428C-A757-E99C38F57FCF}"/>
+  <xr:revisionPtr revIDLastSave="1167" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D89EFC-00DA-4A52-8FB9-F44B04DC3DCD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="4" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="25020" windowHeight="16656" activeTab="4" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="178">
   <si>
     <t>Intro</t>
   </si>
@@ -109,24 +109,15 @@
     <t>Succession planning</t>
   </si>
   <si>
-    <t>intro_prompt</t>
-  </si>
-  <si>
     <t>system_message</t>
   </si>
   <si>
-    <t>{name}, {position}, {function} and {experience} are collected functions from user.</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>summary_prompt</t>
   </si>
   <si>
-    <t>topic_additional_prompt</t>
-  </si>
-  <si>
     <t>Actuarial</t>
   </si>
   <si>
@@ -205,22 +196,9 @@
     <t>Welcome</t>
   </si>
   <si>
-    <t>First, some background. My name is {name}, my position is {position}, working in function {function}. 
-{function_detail}.
-I have the following experience: {experience} 
----
-Reply to me with a brief welcome, and share that next we will select a topic to discuss today. No more than 100 words. Do not sign off. Do not ask any questions at this stage.</t>
-  </si>
-  <si>
     <t>question_format</t>
   </si>
   <si>
-    <t>Ask me an additional {additional_question_no} questions on this topic, keep it relevant to the initial discussion topic. After I have answered the last question, reply with an updated summary, matching the previously shared format.</t>
-  </si>
-  <si>
-    <t>additional_question_no</t>
-  </si>
-  <si>
     <t>AIA development programs</t>
   </si>
   <si>
@@ -308,20 +286,10 @@
     <t>coaching_prompt</t>
   </si>
   <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel stuck in my role, and help me decide on some meaningful next steps I can take.</t>
-  </si>
-  <si>
     <t>question_guidance</t>
   </si>
   <si>
     <t>You are an internal career coach at AIA. Your aim is to guide me to identify specfic areas of personal and professional development to meet my short and long-term career aspirations, in AIA or elsewhere. Your tone should be professional, friendly and empathetic. Use UK english.</t>
-  </si>
-  <si>
-    <t>Me@AIA - Career</t>
   </si>
   <si>
     <t xml:space="preserve">  --- Challenges ---</t>
@@ -380,54 +348,6 @@
   <si>
     <t>Thanks for taking the time to explore your current role at AIA and career path. We are here to support and empower you to navigate your professional journey within our organisation. Our goal is to provide personalised guidance, resources, and opportunities to help you grow and thrive, in your current and future roles.
 We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s </t>
-  </si>
-  <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask what I have been doing to find other talent.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a smooth transition plan to ensure continuity and success.</t>
-  </si>
-  <si>
-    <t>Help me identify why I'm feeling stressed.
-Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
-Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
-Ask what I intitatives I have already taken, and what i'm doing to recover or adapt my workload.
-Ask if I have attended AIA's mental wellbing workship, and recommend me to sign up if I have not.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask if I have discussed with my manager.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel a lack of stimulation or challenge, help me decide on some meaningful next steps I can feel more challenged, create a plan to discuss with my manager and take proactive steps to enhance my job satisfaction.</t>
-  </si>
-  <si>
-    <t>Help me identify areas for development and what resources are available to me.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify areas for development, explore relevant resources, and create a meaningful action plan to enhance my skills and stay competitive in my industry and role.</t>
-  </si>
-  <si>
-    <t>Help me understand how to build a strong personal brand.
-Help me to identify my unique selling points and develop a consistent message.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further promote myself across the business and network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify my unique selling points, and create a plan to build a strong personal brand and promote myself effectively across various platforms.</t>
-  </si>
-  <si>
-    <t>Challenge my current performance and help me identify areas for improvement.
-Ask what I intitatives I have already taken.
-Ask what I am doing to enhance my productivity, efficiency and quality work.
-Ask what additional learning I am doing.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me develop a tailored plan to enhance my productivity, efficiency, and overall work quality, setting me up for continued success.</t>
   </si>
   <si>
     <t>I safeguard AIA's financial wellbeing by ensuring our products are well-designed and suitably priced. I also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
@@ -605,17 +525,168 @@
 mission</t>
   </si>
   <si>
+    <t>What symptoms of burnout or signs of excessive stress do you experience regularly?</t>
+  </si>
+  <si>
+    <t>Have you identified any areas for improvement in your current role?</t>
+  </si>
+  <si>
+    <t>Are there any specific aspects of leadership you want to improve or develop further?</t>
+  </si>
+  <si>
+    <t>Are there any new habits would you like to develop to improve your overall well-being and success?</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Help me explore time management techniques and identify my priorities.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to create a personalised action plan to optimise my productivity and achieve a better work life balance.</t>
+  </si>
+  <si>
+    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new role and responsibility.
+Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and responsibilities.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into a new role.</t>
+  </si>
+  <si>
+    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new team and responsibility.
+Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and responsibilities.
+Help me plan action steps to ensure a smooth and successful transition.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into a new role.</t>
+  </si>
+  <si>
+    <t>TBC…</t>
+  </si>
+  <si>
+    <t>We'll discuss your aspirations and purpose. Identify a career path that resonates with you, set realistic goals and create an action plan.</t>
+  </si>
+  <si>
+    <t>We'll explore your ambitions for promotion and the criteria at AIA. Assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
+  </si>
+  <si>
+    <t>We'll discuss the importance of succession planning in your career and organisation. Evaluate potential successors, develop their skills, and create a smooth transition plan to ensure continuity and success.</t>
+  </si>
+  <si>
+    <t>We'll address your feelings of stagnation and explore potential opportunities for growth. Reassess your goals, identify new challenges, and develop a plan to reinvigorate your career journey.</t>
+  </si>
+  <si>
+    <t>We'll address stress and burnout in your professional life. Explore the underlying causes, identify coping strategies, and create a plan to enhance your resilience and overall well-being.</t>
+  </si>
+  <si>
+    <t>We'll examine your current role and identify areas where you could be more challenged. Create a plan to discuss these opportunities with your manager and take proactive steps to enhance your job satisfaction.</t>
+  </si>
+  <si>
+    <t>We'll discuss strategies to achieve a healthier work-life balance. Explore time management techniques, set boundaries, and create a plan that supports both your professional and personal well-being.</t>
+  </si>
+  <si>
+    <t>We'll focus on your ongoing professional growth. Identify areas for development, explore relevant resources, and create a plan to enhance your skills and stay competitive in your industry.</t>
+  </si>
+  <si>
+    <t>We'll discuss your leadership potential and explore strategies to grow your leadership skills. Identify key competencies, target areas for improvement, and create a plan to help you excel as a leader.</t>
+  </si>
+  <si>
+    <t>We'll understand the process of building a strong personal brand. We'll help you identify your unique selling points, develop a consistent message, and create a plan to promote yourself effectively across various platforms.</t>
+  </si>
+  <si>
+    <t>We'll evaluate your current performance and identify areas for improvement. Develop a tailored plan to enhance your productivity, efficiency, and overall work quality, setting you up for continued success.</t>
+  </si>
+  <si>
+    <t>We'll discuss the various AIA development programs available to support your growth. Identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
+  </si>
+  <si>
+    <t>We'll explore the habits that impact your professional and personal life. Identify areas for improvement and create a plan to cultivate healthier, more productive habits to support your success.</t>
+  </si>
+  <si>
+    <t>We'll focus on improving your time management skills. Explore various techniques, identify your priorities, and create a personalised plan to optimise your productivity and achieve a better work-life balance.</t>
+  </si>
+  <si>
+    <t>We'll navigate the transition to AIA. Discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
+  </si>
+  <si>
+    <t>We'll address your transition to a new team or role. We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
+  </si>
+  <si>
+    <t>We'll address your new responsibilities. We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
+  </si>
+  <si>
+    <t>Help me identify why I'm feeling stressed.
+Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
+Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
+Ask what I initiatives I have already taken, and what I'm doing to recover or adapt my workload.
+Ask if I have attended AIA's mental wellbeing workshop, and recommend me to sign up if I have not.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask if I have discussed with my manager.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel a lack of stimulation or challenge, help me decide on some meaningful next steps I can feel more challenged, create a plan to discuss with my manager and take proactive steps to enhance my job satisfaction.</t>
+  </si>
+  <si>
+    <t>Help me identify what's challenging my work life balance.
+Ask what I initiatives I have already taken to improve it, and what I'm in control of.
+Ask what I am doing to manage my time and set boundaries.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me be clear on how I can improve my work-life balance and identify meaningful next steps to achieve a healthier work-life balance.</t>
+  </si>
+  <si>
+    <t>Help me identify areas for development and what resources are available to me.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify areas for development, explore relevant resources, and create a meaningful action plan to enhance my skills and stay competitive in my industry and role.</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and discuss my leadership potential.
+Ask what I initiatives I have already taken.
+Explore strategies to grow my leadership skills.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to refine my leadership potential and explore strategies to grow my leadership skills. By the end of our discussion, I should have identified key competencies, target areas for improvement, and have an action plan to excel as a leader.</t>
+  </si>
+  <si>
+    <t>Help me understand how to build a strong personal brand.
+Help me to identify my unique selling points and develop a consistent message.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further promote myself across the business and network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify my unique selling points, and create a plan to build a strong personal brand and promote myself effectively across various platforms.</t>
+  </si>
+  <si>
+    <t>Challenge my current performance and help me identify areas for improvement.
+Ask what I initiatives I have already taken.
+Ask what I am doing to enhance my productivity, efficiency and quality work.
+Ask what additional learning I am doing.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me develop a tailored plan to enhance my productivity, efficiency, and overall work quality, setting me up for continued success.</t>
+  </si>
+  <si>
+    <t>Ask what I development programs I have already taken.
+Ask me about my career goals, and help me identify what learning programs would be most appropriate and useful.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some AIA development programs to sign up for, and prompt me to take action.</t>
+  </si>
+  <si>
+    <t>Ask me about what habits are working well now, and which could be improved.
+Help me identify the habits that impact my professional and personal life.
+Hep me identify areas for improvement and habits that I should start or stop.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to identify areas for improvement and create a plan to cultivate healthier, more productive habits to support my success.</t>
+  </si>
+  <si>
+    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new team and responsibility.
+Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and team expectations and responsibilities.
+Help me plan action steps to ensure a smooth and successful transition.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into my new responsibilities.</t>
+  </si>
+  <si>
     <t>Challenge me and help me refine my career aspirations and objectives.
 Help me identify my purpose, strengths, and values.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further my learning and skillset, point me to AIA resources where appropiate.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset, point me to AIA resources where appropriate.
 Ask what I have been doing to further my network.
 Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine my career goals, and help me decide on some meaningful next steps I can take.</t>
   </si>
   <si>
     <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I intitatives I have already taken.
-Ask what I am doing to further my learning and skillset, point me to AIA resources where appropiate.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset, point me to AIA resources where appropriate.
 Ask what I have been doing to further my network.
 - Skills, experience, and impact
 - Interest and demonstrated commitment to learn the skills needed for the next level
@@ -624,117 +695,21 @@
 Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
   </si>
   <si>
-    <t>What symptoms of burnout or signs of excessive stress do you experience regularly?</t>
-  </si>
-  <si>
-    <t>Help me identify what's challenging my work life balance.
-Ask what I intitatives I have already taken to improve it, and what i'm in control of.
-Ask what I am doing to manage my time and set boudaries.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me be clear on how I can improve my work-life balance and identify meaningful next steps to achieve a healthier work-life balance.</t>
-  </si>
-  <si>
-    <t>Have you identified any areas for improvement in your current role?</t>
-  </si>
-  <si>
-    <t>Are there any specific aspects of leadership you want to improve or develop further?</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and discuss my leadership potential.
-Ask what I intitatives I have already taken.
-Explore strategies to grow my leadership skills.
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to find other talent.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a smooth transition plan to ensure continuity and success.</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I initiatives I have already taken.
 Ask what I am doing to further my learning and skillset.
 Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to refine my leadership potential and explore strategies to grow my leadership skills. By the end of our discussion, I should have identifed key competencies, target areas for improvement, and have an action plan to excel as a leader.</t>
-  </si>
-  <si>
-    <t>Ask what I development programs I have already taken.
-Ask me about my career goals, and help me identify what learning programs would be most appropiate and useful.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some AIA development programs to sign up for, and prompt me to take action.</t>
-  </si>
-  <si>
-    <t>Are there any new habits would you like to develop to improve your overall well-being and success?</t>
-  </si>
-  <si>
-    <t>Ask me about what habits are working well now, and which could be improved.
-Help me identify the habits that impact my professional and personal life.
-Hep me identify areas for improvement and habits that I should start or stop.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to identify areas for improvement and create a plan to cultivat healtheir, more productive habits to support my success.</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Help me explore time management techniques and identify my priorities.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to create a personalised action plan to optimise my productivity and achieve a better work life balance.</t>
-  </si>
-  <si>
-    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new role and responsibility.
-Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and responsibilities.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into a new role.</t>
-  </si>
-  <si>
-    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new team and responsibility.
-Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and responsibilities.
-Help me plan action steps to ensure a smooth and successful transition.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into a new role.</t>
-  </si>
-  <si>
-    <t>TBC…</t>
-  </si>
-  <si>
-    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new team and responsibility.
-Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and team expectations and responsibilities.
-Help me plan action steps to ensure a smooth and successful transition.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into my new responsibiliites.</t>
-  </si>
-  <si>
-    <t>We'll discuss your aspirations and purpose. Identify a career path that resonates with you, set realistic goals and create an action plan.</t>
-  </si>
-  <si>
-    <t>We'll explore your ambitions for promotion and the criteria at AIA. Assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
-  </si>
-  <si>
-    <t>We'll discuss the importance of succession planning in your career and organisation. Evaluate potential successors, develop their skills, and create a smooth transition plan to ensure continuity and success.</t>
-  </si>
-  <si>
-    <t>We'll address your feelings of stagnation and explore potential opportunities for growth. Reassess your goals, identify new challenges, and develop a plan to reinvigorate your career journey.</t>
-  </si>
-  <si>
-    <t>We'll address stress and burnout in your professional life. Explore the underlying causes, identify coping strategies, and create a plan to enhance your resilience and overall well-being.</t>
-  </si>
-  <si>
-    <t>We'll examine your current role and identify areas where you could be more challenged. Create a plan to discuss these opportunities with your manager and take proactive steps to enhance your job satisfaction.</t>
-  </si>
-  <si>
-    <t>We'll discuss strategies to achieve a healthier work-life balance. Explore time management techniques, set boundaries, and create a plan that supports both your professional and personal well-being.</t>
-  </si>
-  <si>
-    <t>We'll focus on your ongoing professional growth. Identify areas for development, explore relevant resources, and create a plan to enhance your skills and stay competitive in your industry.</t>
-  </si>
-  <si>
-    <t>We'll discuss your leadership potential and explore strategies to grow your leadership skills. Identify key competencies, target areas for improvement, and create a plan to help you excel as a leader.</t>
-  </si>
-  <si>
-    <t>We'll understand the process of building a strong personal brand. We'll help you identify your unique selling points, develop a consistent message, and create a plan to promote yourself effectively across various platforms.</t>
-  </si>
-  <si>
-    <t>We'll evaluate your current performance and identify areas for improvement. Develop a tailored plan to enhance your productivity, efficiency, and overall work quality, setting you up for continued success.</t>
-  </si>
-  <si>
-    <t>We'll discuss the various AIA development programs available to support your growth. Identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
-  </si>
-  <si>
-    <t>We'll explore the habits that impact your professional and personal life. Identify areas for improvement and create a plan to cultivate healthier, more productive habits to support your success.</t>
-  </si>
-  <si>
-    <t>We'll focus on improving your time management skills. Explore various techniques, identify your priorities, and create a personalised plan to optimise your productivity and achieve a better work-life balance.</t>
-  </si>
-  <si>
-    <t>We'll navigate the transition to AIA. Discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
-  </si>
-  <si>
-    <t>We'll address your transition to a new team or role. We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
-  </si>
-  <si>
-    <t>We'll address your new responsibilities. We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel stuck in my role, and help me decide on some meaningful next steps I can take.</t>
+  </si>
+  <si>
+    <t>Career@AIA</t>
   </si>
 </sst>
 </file>
@@ -787,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -804,9 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -841,10 +813,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -861,6 +829,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1160,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,79 +1147,52 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>110</v>
-      </c>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1258,9 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B67F92-929D-4748-A060-6C905D3C4127}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1272,16 +1215,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -1291,14 +1234,14 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>90</v>
+      <c r="B2" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1317,7 +1260,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1328,18 +1271,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1347,13 +1290,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1383,9 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5990ADE6-0F99-4D0A-96A1-792BDD041915}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1394,19 +1335,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1414,15 +1355,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1430,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1438,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1446,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1454,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1462,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -1470,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1478,7 +1419,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1486,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1494,7 +1435,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1502,7 +1443,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1519,9 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB32C457-BB1C-43B6-85B5-79C1542A27FD}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1530,56 +1469,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1592,18 +1531,18 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="42.77734375" style="10" customWidth="1"/>
     <col min="2" max="2" width="53.44140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="77.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="88.21875" customWidth="1"/>
@@ -1611,34 +1550,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>74</v>
+      <c r="A1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
+      <c r="A2" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -1646,187 +1585,187 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="9"/>
+      <c r="A3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>66</v>
+      <c r="A4" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="10">
+        <v>173</v>
+      </c>
+      <c r="D4" s="9">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>61</v>
+      <c r="A5" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="10">
+        <v>174</v>
+      </c>
+      <c r="D5" s="9">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="10">
+        <v>175</v>
+      </c>
+      <c r="D6" s="9">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="9"/>
+      <c r="A7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="10">
+        <v>176</v>
+      </c>
+      <c r="D8" s="9">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>68</v>
+      <c r="A9" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="10">
+        <v>163</v>
+      </c>
+      <c r="D9" s="9">
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>93</v>
+      <c r="A10" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="10">
+        <v>164</v>
+      </c>
+      <c r="D10" s="9">
         <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>92</v>
+      <c r="A11" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="10">
+        <v>165</v>
+      </c>
+      <c r="D11" s="9">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="8"/>
+      <c r="A12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1835,181 +1774,181 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="10">
+        <v>166</v>
+      </c>
+      <c r="D13" s="9">
         <v>5</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="10">
+        <v>167</v>
+      </c>
+      <c r="D14" s="9">
         <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>63</v>
+      <c r="A15" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="10">
+        <v>168</v>
+      </c>
+      <c r="D15" s="9">
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>69</v>
+      <c r="A16" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="10">
+        <v>169</v>
+      </c>
+      <c r="D16" s="9">
         <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>58</v>
+      <c r="A17" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="10">
+        <v>170</v>
+      </c>
+      <c r="D17" s="9">
         <v>5</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>70</v>
+      <c r="A18" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="10">
+        <v>171</v>
+      </c>
+      <c r="D18" s="9">
         <v>5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>65</v>
+      <c r="A19" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="10">
+        <v>142</v>
+      </c>
+      <c r="D19" s="9">
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="8"/>
+      <c r="A20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -2018,108 +1957,108 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>182</v>
+      <c r="A21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="10">
+        <v>143</v>
+      </c>
+      <c r="D21" s="9">
         <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>71</v>
+      <c r="A22" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="10">
+        <v>144</v>
+      </c>
+      <c r="D22" s="9">
         <v>5</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>73</v>
+      <c r="A23" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="10">
+        <v>172</v>
+      </c>
+      <c r="D23" s="9">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="9"/>
+      <c r="A24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>166</v>
+      <c r="A25" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2131,9 +2070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65851DD-2F33-46F0-91C4-1CC85B19859B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2143,42 +2080,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>122</v>
+        <v>106</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>145</v>
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1167" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D89EFC-00DA-4A52-8FB9-F44B04DC3DCD}"/>
+  <xr:revisionPtr revIDLastSave="1174" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8BFBB68-0881-45C9-9127-5A555AE03CF1}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="25020" windowHeight="16656" activeTab="4" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>Shape your future, your way.</t>
   </si>
   <si>
-    <t>Let's cover the basics. :slightly_smiling_face:</t>
-  </si>
-  <si>
     <t>All information provided is confidential and will not be shared.</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>max_questions</t>
   </si>
   <si>
-    <t>Choose a topic below and share some intitial background.</t>
-  </si>
-  <si>
     <t>We will work through a series of prompts, designed to guide your thinking, and create actionable steps you can take.</t>
   </si>
   <si>
@@ -344,10 +338,6 @@
   </si>
   <si>
     <t>Take action.</t>
-  </si>
-  <si>
-    <t>Thanks for taking the time to explore your current role at AIA and career path. We are here to support and empower you to navigate your professional journey within our organisation. Our goal is to provide personalised guidance, resources, and opportunities to help you grow and thrive, in your current and future roles.
-We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.</t>
   </si>
   <si>
     <t>I safeguard AIA's financial wellbeing by ensuring our products are well-designed and suitably priced. I also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
@@ -710,6 +700,17 @@
   </si>
   <si>
     <t>Career@AIA</t>
+  </si>
+  <si>
+    <t>Let's cover the basics.</t>
+  </si>
+  <si>
+    <t>Thank you for taking the time to explore your career at AIA. We are here to help you clarify and navigate your professional journey within our organisation. Our goal is to provide personalised guidance, and where possible, connect you with resources that help in your current and future roles.
+We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.
+Any information provided is confidential and will not be shared further.</t>
+  </si>
+  <si>
+    <t>Choose a topic below and share some initial background.</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1147,48 +1148,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1203,7 +1204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B67F92-929D-4748-A060-6C905D3C4127}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1215,33 +1218,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1252,15 +1255,15 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1271,18 +1274,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1290,13 +1293,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1336,114 +1339,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1470,55 +1473,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1530,11 +1533,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4B99F-D286-4F78-BAC8-23AC2E322EDE}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,33 +1554,33 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -1586,7 +1589,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="1"/>
@@ -1595,70 +1598,70 @@
     </row>
     <row r="4" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D4" s="9">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D5" s="9">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
@@ -1667,103 +1670,103 @@
     </row>
     <row r="8" spans="1:9" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D8" s="9">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D9" s="9">
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D10" s="9">
         <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D11" s="9">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1775,178 +1778,178 @@
     </row>
     <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D13" s="9">
         <v>5</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D14" s="9">
         <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D15" s="9">
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D16" s="9">
         <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D17" s="9">
         <v>5</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D18" s="9">
         <v>5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D19" s="9">
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="6"/>
@@ -1958,79 +1961,79 @@
     </row>
     <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D21" s="9">
         <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D22" s="9">
         <v>5</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D23" s="9">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
@@ -2039,7 +2042,7 @@
     </row>
     <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
@@ -2047,13 +2050,13 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -2080,42 +2083,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1174" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8BFBB68-0881-45C9-9127-5A555AE03CF1}"/>
+  <xr:revisionPtr revIDLastSave="1186" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279E871E-8413-4370-8E7B-092882941139}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="181">
   <si>
     <t>Intro</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>max_questions</t>
-  </si>
-  <si>
-    <t>We will work through a series of prompts, designed to guide your thinking, and create actionable steps you can take.</t>
   </si>
   <si>
     <t>page</t>
@@ -711,6 +708,19 @@
   </si>
   <si>
     <t>Choose a topic below and share some initial background.</t>
+  </si>
+  <si>
+    <t>intro_prompt</t>
+  </si>
+  <si>
+    <t>Reply with a brief welcome, and share that next we will select a topic to discuss today. No more than 50 words. Do not sign off. Do not ask any questions at this stage.</t>
+  </si>
+  <si>
+    <t>We will work through a series of prompts, designed to guide your thinking, and create actionable steps you can take.
+During our coaching session, please avoid providing any personal information such as address, phone number, date of birth, account details, etc.</t>
+  </si>
+  <si>
+    <t>**Thanks for taking the time to discuss your career today. Below is a summary of our conversation, and some suggested actions steps you can take. As an AI coach, you should use this as guidance, not an absolute directive. You should use your own judgement and consider the advice in the context of your unique situation and goals. Please also check information with reliable sources, especially when making important decisions.**</t>
   </si>
 </sst>
 </file>
@@ -1133,11 +1143,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1162,38 +1170,47 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>125</v>
+        <v>177</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1204,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B67F92-929D-4748-A060-6C905D3C4127}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,16 +1235,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -1238,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1255,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1263,45 +1280,47 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1350,7 +1369,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1358,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1366,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1374,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1382,7 +1401,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1390,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1398,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1406,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -1414,7 +1433,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1422,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1430,7 +1449,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1438,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1446,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1557,16 +1576,16 @@
         <v>22</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>41</v>
@@ -1589,7 +1608,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="1"/>
@@ -1598,43 +1617,43 @@
     </row>
     <row r="4" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="9">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="9">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -1643,25 +1662,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
@@ -1670,103 +1689,103 @@
     </row>
     <row r="8" spans="1:9" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="9">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="9">
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" s="9">
         <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="9">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1781,22 +1800,22 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="9">
         <v>5</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
@@ -1806,150 +1825,150 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="9">
         <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="9">
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" s="9">
         <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" s="9">
         <v>5</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" s="9">
         <v>5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="9">
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="6"/>
@@ -1961,79 +1980,79 @@
     </row>
     <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="9">
         <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="9">
         <v>5</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" s="9">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
@@ -2042,7 +2061,7 @@
     </row>
     <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
@@ -2050,13 +2069,13 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -2083,42 +2102,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1186" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279E871E-8413-4370-8E7B-092882941139}"/>
+  <xr:revisionPtr revIDLastSave="1202" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F1CEC38-B27F-4C48-919A-84814C58E9A0}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="8184" yWindow="1536" windowWidth="14424" windowHeight="14400" firstSheet="1" activeTab="4" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -543,55 +543,7 @@
     <t>TBC…</t>
   </si>
   <si>
-    <t>We'll discuss your aspirations and purpose. Identify a career path that resonates with you, set realistic goals and create an action plan.</t>
-  </si>
-  <si>
-    <t>We'll explore your ambitions for promotion and the criteria at AIA. Assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
-  </si>
-  <si>
-    <t>We'll discuss the importance of succession planning in your career and organisation. Evaluate potential successors, develop their skills, and create a smooth transition plan to ensure continuity and success.</t>
-  </si>
-  <si>
-    <t>We'll address your feelings of stagnation and explore potential opportunities for growth. Reassess your goals, identify new challenges, and develop a plan to reinvigorate your career journey.</t>
-  </si>
-  <si>
-    <t>We'll address stress and burnout in your professional life. Explore the underlying causes, identify coping strategies, and create a plan to enhance your resilience and overall well-being.</t>
-  </si>
-  <si>
-    <t>We'll examine your current role and identify areas where you could be more challenged. Create a plan to discuss these opportunities with your manager and take proactive steps to enhance your job satisfaction.</t>
-  </si>
-  <si>
-    <t>We'll discuss strategies to achieve a healthier work-life balance. Explore time management techniques, set boundaries, and create a plan that supports both your professional and personal well-being.</t>
-  </si>
-  <si>
-    <t>We'll focus on your ongoing professional growth. Identify areas for development, explore relevant resources, and create a plan to enhance your skills and stay competitive in your industry.</t>
-  </si>
-  <si>
-    <t>We'll discuss your leadership potential and explore strategies to grow your leadership skills. Identify key competencies, target areas for improvement, and create a plan to help you excel as a leader.</t>
-  </si>
-  <si>
     <t>We'll understand the process of building a strong personal brand. We'll help you identify your unique selling points, develop a consistent message, and create a plan to promote yourself effectively across various platforms.</t>
-  </si>
-  <si>
-    <t>We'll evaluate your current performance and identify areas for improvement. Develop a tailored plan to enhance your productivity, efficiency, and overall work quality, setting you up for continued success.</t>
-  </si>
-  <si>
-    <t>We'll discuss the various AIA development programs available to support your growth. Identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
-  </si>
-  <si>
-    <t>We'll explore the habits that impact your professional and personal life. Identify areas for improvement and create a plan to cultivate healthier, more productive habits to support your success.</t>
-  </si>
-  <si>
-    <t>We'll focus on improving your time management skills. Explore various techniques, identify your priorities, and create a personalised plan to optimise your productivity and achieve a better work-life balance.</t>
-  </si>
-  <si>
-    <t>We'll navigate the transition to AIA. Discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
-  </si>
-  <si>
-    <t>We'll address your transition to a new team or role. We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
-  </si>
-  <si>
-    <t>We'll address your new responsibilities. We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
   </si>
   <si>
     <t>Help me identify why I'm feeling stressed.
@@ -721,6 +673,54 @@
   </si>
   <si>
     <t>**Thanks for taking the time to discuss your career today. Below is a summary of our conversation, and some suggested actions steps you can take. As an AI coach, you should use this as guidance, not an absolute directive. You should use your own judgement and consider the advice in the context of your unique situation and goals. Please also check information with reliable sources, especially when making important decisions.**</t>
+  </si>
+  <si>
+    <t>We'll focus on your ongoing professional growth, identify areas for development, explore relevant resources, and create a plan to enhance your skills and stay competitive in your industry.</t>
+  </si>
+  <si>
+    <t>We'll discuss your leadership potential and explore strategies to grow your leadership skills. During this session we identify key competencies, target areas for improvement, and create a plan to help you excel as a leader.</t>
+  </si>
+  <si>
+    <t>We'll discuss your aspirations and purpose. During the session, we identify a career path that resonates with you, set realistic goals and create an action plan.</t>
+  </si>
+  <si>
+    <t>We'll explore your ambitions for promotion and the criteria at AIA. During the session, we'll assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
+  </si>
+  <si>
+    <t>We'll discuss the importance of succession planning in your career and organisation. We will evaluate potential successors, discuss how to develop their skills, and create a smooth transition plan to ensure continuity and success.</t>
+  </si>
+  <si>
+    <t>We'll address your feelings of stagnation and explore potential opportunities for growth. During the session, we'll reassess your goals, identify new challenges, and develop a plan to reinvigorate your career journey.</t>
+  </si>
+  <si>
+    <t>We'll address stress and burnout in your professional life. During the session, we'lle xplore the underlying causes, identify coping strategies, and create a plan to enhance your resilience and overall well-being.</t>
+  </si>
+  <si>
+    <t>We'll examine your current role and identify areas where you could be more challenged. During the session, we'll create a plan to discuss these opportunities with your manager and take proactive steps to enhance your job satisfaction.</t>
+  </si>
+  <si>
+    <t>We'll discuss strategies to achieve a healthier work-life balance. During the session, we'll explore time management techniques, set boundaries, and create a plan that supports both your professional and personal well-being.</t>
+  </si>
+  <si>
+    <t>We'll evaluate your current performance and identify areas for improvement. During the session, we'll develop a tailored plan to enhance your productivity, efficiency, and overall work quality, setting you up for continued success.</t>
+  </si>
+  <si>
+    <t>We'll discuss the various AIA development programs available to support your growth. During the session, we'll identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
+  </si>
+  <si>
+    <t>We'll explore the habits that impact your professional and personal life. During the session, we'll identify areas for improvement and create a plan to cultivate healthier, more productive habits to support your success.</t>
+  </si>
+  <si>
+    <t>We'll focus on improving your time management skills. During the session, we'll explore various techniques, identify your priorities, and create a personalised plan to optimise your productivity and achieve a better work-life balance.</t>
+  </si>
+  <si>
+    <t>We'll navigate the transition to AIA. During the session, we'll discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
+  </si>
+  <si>
+    <t>We'll cover your transition to a new team or role. During the session, we'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
+  </si>
+  <si>
+    <t>We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1176,10 +1178,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1255,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1272,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1294,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1313,13 +1315,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1552,11 +1554,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4B99F-D286-4F78-BAC8-23AC2E322EDE}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,10 +1622,10 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D4" s="9">
         <v>5</v>
@@ -1641,10 +1643,10 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D5" s="9">
         <v>5</v>
@@ -1662,10 +1664,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
@@ -1692,10 +1694,10 @@
         <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D8" s="9">
         <v>5</v>
@@ -1715,10 +1717,10 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D9" s="9">
         <v>5</v>
@@ -1740,10 +1742,10 @@
         <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D10" s="9">
         <v>5</v>
@@ -1763,10 +1765,10 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D11" s="9">
         <v>5</v>
@@ -1800,10 +1802,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D13" s="9">
         <v>5</v>
@@ -1825,10 +1827,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D14" s="9">
         <v>4</v>
@@ -1848,10 +1850,10 @@
         <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D15" s="9">
         <v>5</v>
@@ -1873,10 +1875,10 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D16" s="9">
         <v>5</v>
@@ -1898,10 +1900,10 @@
         <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D17" s="9">
         <v>5</v>
@@ -1921,10 +1923,10 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D18" s="9">
         <v>5</v>
@@ -1946,7 +1948,7 @@
         <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>138</v>
@@ -1983,7 +1985,7 @@
         <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>139</v>
@@ -2006,7 +2008,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>140</v>
@@ -2031,10 +2033,10 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D23" s="9">
         <v>5</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1202" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F1CEC38-B27F-4C48-919A-84814C58E9A0}"/>
+  <xr:revisionPtr revIDLastSave="1204" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5CE4FFE-08B5-43EA-9367-E57D5BE49F40}"/>
   <bookViews>
-    <workbookView xWindow="8184" yWindow="1536" windowWidth="14424" windowHeight="14400" firstSheet="1" activeTab="4" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="22464" yWindow="1704" windowWidth="14424" windowHeight="14400" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -353,16 +353,6 @@
 ::Action:: [Suggested Action]</t>
   </si>
   <si>
-    <t>[Brief introduction, then ask Question 1, provided by you]
-%Answer 1, written by me%
-[150 word reply to Answer 1, then Question 2, provided by you]
-%Answer 2, written by me%
-...
-[150 word reply to Answer N-1, then Question N, provided by you]
-%Answer N, written by me%
-[150 word reply to Answer N]</t>
-  </si>
-  <si>
     <t>topic</t>
   </si>
   <si>
@@ -721,6 +711,16 @@
   </si>
   <si>
     <t>We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
+  </si>
+  <si>
+    <t>[Brief introduction, then ask Question 1, provided by you]
+%Answer 1, written by me%
+[150 word or longer reply to Answer 1, then Question 2, provided by you]
+%Answer 2, written by me%
+...
+[150 word or longer reply to Answer N-1, then Question N, provided by you]
+%Answer N, written by me%
+[150 word or longer reply to Answer N]</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1190,7 +1190,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1199,7 +1199,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1315,13 +1315,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1554,11 +1554,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4B99F-D286-4F78-BAC8-23AC2E322EDE}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,7 +1587,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>41</v>
@@ -1622,19 +1622,19 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="9">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -1643,10 +1643,10 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="9">
         <v>5</v>
@@ -1655,7 +1655,7 @@
         <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -1664,10 +1664,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
@@ -1676,7 +1676,7 @@
         <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -1694,20 +1694,20 @@
         <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="9">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
@@ -1717,22 +1717,22 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="9">
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="5"/>
@@ -1742,10 +1742,10 @@
         <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="9">
         <v>5</v>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
@@ -1765,22 +1765,22 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="9">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
@@ -1802,22 +1802,22 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="9">
         <v>5</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
@@ -1827,20 +1827,20 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="9">
         <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
@@ -1850,22 +1850,22 @@
         <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="9">
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>71</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
@@ -1875,22 +1875,22 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="9">
         <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
@@ -1900,20 +1900,20 @@
         <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="9">
         <v>5</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="5"/>
@@ -1923,22 +1923,22 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="9">
         <v>5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="5"/>
@@ -1948,22 +1948,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D19" s="9">
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="5"/>
@@ -1985,20 +1985,20 @@
         <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" s="9">
         <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="5"/>
@@ -2008,22 +2008,22 @@
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="9">
         <v>5</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="5"/>
@@ -2033,22 +2033,22 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="9">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
@@ -2071,13 +2071,13 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -2104,42 +2104,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1204" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5CE4FFE-08B5-43EA-9367-E57D5BE49F40}"/>
+  <xr:revisionPtr revIDLastSave="1206" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C51E46C-D134-4F71-8973-2E1DB1B44B10}"/>
   <bookViews>
-    <workbookView xWindow="22464" yWindow="1704" windowWidth="14424" windowHeight="14400" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="22464" yWindow="1704" windowWidth="14424" windowHeight="14400" firstSheet="1" activeTab="4" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -605,25 +605,6 @@
 Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into my new responsibilities.</t>
   </si>
   <si>
-    <t>Challenge me and help me refine my career aspirations and objectives.
-Help me identify my purpose, strengths, and values.
-Ask what I initiatives I have already taken.
-Ask what I am doing to further my learning and skillset, point me to AIA resources where appropriate.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine my career goals, and help me decide on some meaningful next steps I can take.</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I initiatives I have already taken.
-Ask what I am doing to further my learning and skillset, point me to AIA resources where appropriate.
-Ask what I have been doing to further my network.
-- Skills, experience, and impact
-- Interest and demonstrated commitment to learn the skills needed for the next level
-If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
-- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
-  </si>
-  <si>
     <t>Challenge my answers, and ask relevant questions for a deeper understanding.
 Ask what I initiatives I have already taken.
 Ask what I am doing to further my learning and skillset.
@@ -721,6 +702,26 @@
 [150 word or longer reply to Answer N-1, then Question N, provided by you]
 %Answer N, written by me%
 [150 word or longer reply to Answer N]</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I initiatives I have already taken.
+Ask what I am good at and dislike, and what i'm doing to further my learning and skillset, point me to AIA resources where appropriate.
+Ask what I have been doing to further my network.
+- Skills, experience, and impact
+- Interest and demonstrated commitment to learn the skills needed for the next level
+If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
+- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
+  </si>
+  <si>
+    <t>Challenge me and help me refine my career aspirations and objectives.
+Help me identify my purpose, strengths, and values.
+Help me reflect on what i'm good at, self-assess my weaknesses and increase my own awareness.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset, point me to AIA resources where appropriate.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine my career goals, and help me decide on some meaningful next steps I can take.</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,10 +1179,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1199,7 +1200,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1223,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B67F92-929D-4748-A060-6C905D3C4127}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1274,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1296,10 +1297,10 @@
         <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1315,13 +1316,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1554,11 +1555,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4B99F-D286-4F78-BAC8-23AC2E322EDE}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1617,15 +1618,15 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D4" s="9">
         <v>5</v>
@@ -1643,10 +1644,10 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D5" s="9">
         <v>5</v>
@@ -1664,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
@@ -1694,10 +1695,10 @@
         <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D8" s="9">
         <v>5</v>
@@ -1717,7 +1718,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>142</v>
@@ -1742,7 +1743,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>143</v>
@@ -1765,7 +1766,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>144</v>
@@ -1802,7 +1803,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>145</v>
@@ -1827,7 +1828,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>146</v>
@@ -1875,7 +1876,7 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>148</v>
@@ -1900,7 +1901,7 @@
         <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>149</v>
@@ -1923,7 +1924,7 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>150</v>
@@ -1948,7 +1949,7 @@
         <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>137</v>
@@ -1985,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>138</v>
@@ -2008,7 +2009,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>139</v>
@@ -2033,7 +2034,7 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>151</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1206" documentId="8_{446ABEFA-D611-4C82-8107-C5713E4EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C51E46C-D134-4F71-8973-2E1DB1B44B10}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D05300-D3C3-44CE-BAEA-3361A0E58396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22464" yWindow="1704" windowWidth="14424" windowHeight="14400" firstSheet="1" activeTab="4" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="22608" yWindow="1200" windowWidth="14424" windowHeight="14400" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="183">
   <si>
     <t>Intro</t>
   </si>
@@ -341,16 +341,6 @@
   </si>
   <si>
     <t>I safeguard AIA’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. I am also responsible for all external reporting including statutory and regulatory filings.</t>
-  </si>
-  <si>
-    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal AIA site pages if suitable.
-The summary should follow the format below, where the descriptions in [ ] should be generated by you, and the descriptions between % % will be provided by me. Please use github flavored markdown and use bullets if relevant.
-[Recap of our discussion, key concerns, problems and potential approaches, approximately 200 words]
-#### Action Plan
-Below are some suggestions of actions you can take. You understand your situation best, so please edit and use these as a starting point or create your own.
-::Action:: [Suggested Action]
-::Action:: [Suggested Action]
-::Action:: [Suggested Action]</t>
   </si>
   <si>
     <t>topic</t>
@@ -434,6 +424,299 @@
   </si>
   <si>
     <t>Can you describe the current state of employee retention and engagement within your team or organisation?</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>### Purpose Statement
+AIA's Purpose is to help people live Healthier, Longer, Better Lives, in every community in which we live and work, with products and policies that don't just protect lives but help make lives healthier, longer and better.</t>
+  </si>
+  <si>
+    <t>mission
+promotions
+learning</t>
+  </si>
+  <si>
+    <t>mission
+learning</t>
+  </si>
+  <si>
+    <t>promotions
+learning
+mission</t>
+  </si>
+  <si>
+    <t>learning
+mental_wellbeing
+mission</t>
+  </si>
+  <si>
+    <t>learning
+promotions
+mission</t>
+  </si>
+  <si>
+    <t>learning
+promotions
+mental_wellbeing
+mission</t>
+  </si>
+  <si>
+    <t>learning
+mental_wellbeing
+promotions
+mission</t>
+  </si>
+  <si>
+    <t>What symptoms of burnout or signs of excessive stress do you experience regularly?</t>
+  </si>
+  <si>
+    <t>Have you identified any areas for improvement in your current role?</t>
+  </si>
+  <si>
+    <t>Are there any specific aspects of leadership you want to improve or develop further?</t>
+  </si>
+  <si>
+    <t>Are there any new habits would you like to develop to improve your overall well-being and success?</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Help me explore time management techniques and identify my priorities.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to create a personalised action plan to optimise my productivity and achieve a better work life balance.</t>
+  </si>
+  <si>
+    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new role and responsibility.
+Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and responsibilities.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into a new role.</t>
+  </si>
+  <si>
+    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new team and responsibility.
+Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and responsibilities.
+Help me plan action steps to ensure a smooth and successful transition.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into a new role.</t>
+  </si>
+  <si>
+    <t>TBC…</t>
+  </si>
+  <si>
+    <t>We'll understand the process of building a strong personal brand. We'll help you identify your unique selling points, develop a consistent message, and create a plan to promote yourself effectively across various platforms.</t>
+  </si>
+  <si>
+    <t>Help me identify why I'm feeling stressed.
+Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
+Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
+Ask what I initiatives I have already taken, and what I'm doing to recover or adapt my workload.
+Ask if I have attended AIA's mental wellbeing workshop, and recommend me to sign up if I have not.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask if I have discussed with my manager.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel a lack of stimulation or challenge, help me decide on some meaningful next steps I can feel more challenged, create a plan to discuss with my manager and take proactive steps to enhance my job satisfaction.</t>
+  </si>
+  <si>
+    <t>Help me identify what's challenging my work life balance.
+Ask what I initiatives I have already taken to improve it, and what I'm in control of.
+Ask what I am doing to manage my time and set boundaries.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me be clear on how I can improve my work-life balance and identify meaningful next steps to achieve a healthier work-life balance.</t>
+  </si>
+  <si>
+    <t>Help me identify areas for development and what resources are available to me.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify areas for development, explore relevant resources, and create a meaningful action plan to enhance my skills and stay competitive in my industry and role.</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and discuss my leadership potential.
+Ask what I initiatives I have already taken.
+Explore strategies to grow my leadership skills.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to refine my leadership potential and explore strategies to grow my leadership skills. By the end of our discussion, I should have identified key competencies, target areas for improvement, and have an action plan to excel as a leader.</t>
+  </si>
+  <si>
+    <t>Help me understand how to build a strong personal brand.
+Help me to identify my unique selling points and develop a consistent message.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further promote myself across the business and network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify my unique selling points, and create a plan to build a strong personal brand and promote myself effectively across various platforms.</t>
+  </si>
+  <si>
+    <t>Challenge my current performance and help me identify areas for improvement.
+Ask what I initiatives I have already taken.
+Ask what I am doing to enhance my productivity, efficiency and quality work.
+Ask what additional learning I am doing.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me develop a tailored plan to enhance my productivity, efficiency, and overall work quality, setting me up for continued success.</t>
+  </si>
+  <si>
+    <t>Ask what I development programs I have already taken.
+Ask me about my career goals, and help me identify what learning programs would be most appropriate and useful.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some AIA development programs to sign up for, and prompt me to take action.</t>
+  </si>
+  <si>
+    <t>Ask me about what habits are working well now, and which could be improved.
+Help me identify the habits that impact my professional and personal life.
+Hep me identify areas for improvement and habits that I should start or stop.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to identify areas for improvement and create a plan to cultivate healthier, more productive habits to support my success.</t>
+  </si>
+  <si>
+    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new team and responsibility.
+Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and team expectations and responsibilities.
+Help me plan action steps to ensure a smooth and successful transition.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into my new responsibilities.</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to find other talent.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a smooth transition plan to ensure continuity and success.</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel stuck in my role, and help me decide on some meaningful next steps I can take.</t>
+  </si>
+  <si>
+    <t>Career@AIA</t>
+  </si>
+  <si>
+    <t>Let's cover the basics.</t>
+  </si>
+  <si>
+    <t>Thank you for taking the time to explore your career at AIA. We are here to help you clarify and navigate your professional journey within our organisation. Our goal is to provide personalised guidance, and where possible, connect you with resources that help in your current and future roles.
+We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.
+Any information provided is confidential and will not be shared further.</t>
+  </si>
+  <si>
+    <t>Choose a topic below and share some initial background.</t>
+  </si>
+  <si>
+    <t>intro_prompt</t>
+  </si>
+  <si>
+    <t>Reply with a brief welcome, and share that next we will select a topic to discuss today. No more than 50 words. Do not sign off. Do not ask any questions at this stage.</t>
+  </si>
+  <si>
+    <t>We will work through a series of prompts, designed to guide your thinking, and create actionable steps you can take.
+During our coaching session, please avoid providing any personal information such as address, phone number, date of birth, account details, etc.</t>
+  </si>
+  <si>
+    <t>**Thanks for taking the time to discuss your career today. Below is a summary of our conversation, and some suggested actions steps you can take. As an AI coach, you should use this as guidance, not an absolute directive. You should use your own judgement and consider the advice in the context of your unique situation and goals. Please also check information with reliable sources, especially when making important decisions.**</t>
+  </si>
+  <si>
+    <t>We'll focus on your ongoing professional growth, identify areas for development, explore relevant resources, and create a plan to enhance your skills and stay competitive in your industry.</t>
+  </si>
+  <si>
+    <t>We'll discuss your leadership potential and explore strategies to grow your leadership skills. During this session we identify key competencies, target areas for improvement, and create a plan to help you excel as a leader.</t>
+  </si>
+  <si>
+    <t>We'll discuss your aspirations and purpose. During the session, we identify a career path that resonates with you, set realistic goals and create an action plan.</t>
+  </si>
+  <si>
+    <t>We'll explore your ambitions for promotion and the criteria at AIA. During the session, we'll assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
+  </si>
+  <si>
+    <t>We'll discuss the importance of succession planning in your career and organisation. We will evaluate potential successors, discuss how to develop their skills, and create a smooth transition plan to ensure continuity and success.</t>
+  </si>
+  <si>
+    <t>We'll address your feelings of stagnation and explore potential opportunities for growth. During the session, we'll reassess your goals, identify new challenges, and develop a plan to reinvigorate your career journey.</t>
+  </si>
+  <si>
+    <t>We'll address stress and burnout in your professional life. During the session, we'lle xplore the underlying causes, identify coping strategies, and create a plan to enhance your resilience and overall well-being.</t>
+  </si>
+  <si>
+    <t>We'll examine your current role and identify areas where you could be more challenged. During the session, we'll create a plan to discuss these opportunities with your manager and take proactive steps to enhance your job satisfaction.</t>
+  </si>
+  <si>
+    <t>We'll discuss strategies to achieve a healthier work-life balance. During the session, we'll explore time management techniques, set boundaries, and create a plan that supports both your professional and personal well-being.</t>
+  </si>
+  <si>
+    <t>We'll evaluate your current performance and identify areas for improvement. During the session, we'll develop a tailored plan to enhance your productivity, efficiency, and overall work quality, setting you up for continued success.</t>
+  </si>
+  <si>
+    <t>We'll discuss the various AIA development programs available to support your growth. During the session, we'll identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
+  </si>
+  <si>
+    <t>We'll explore the habits that impact your professional and personal life. During the session, we'll identify areas for improvement and create a plan to cultivate healthier, more productive habits to support your success.</t>
+  </si>
+  <si>
+    <t>We'll focus on improving your time management skills. During the session, we'll explore various techniques, identify your priorities, and create a personalised plan to optimise your productivity and achieve a better work-life balance.</t>
+  </si>
+  <si>
+    <t>We'll navigate the transition to AIA. During the session, we'll discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
+  </si>
+  <si>
+    <t>We'll cover your transition to a new team or role. During the session, we'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
+  </si>
+  <si>
+    <t>We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
+  </si>
+  <si>
+    <t>Challenge me and help me refine my career aspirations and objectives.
+Help me identify my purpose, strengths, and values.
+Help me reflect on what i'm good at, self-assess my weaknesses and increase my own awareness.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset, point me to AIA resources where appropriate.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine my career goals, and help me decide on some meaningful next steps I can take.</t>
+  </si>
+  <si>
+    <t>analysis_prompt</t>
+  </si>
+  <si>
+    <t>[Brief introduction, then ask Question 1, provided by you]
+%Answer 1, written by me%
+[150 word or longer reply to Answer 1, then Question 2, provided by you]
+%Answer 2, written by me%
+...
+[150 word or longer reply to Penultimate Answer, then Last Question, provided by you]
+%Last Answer, written by me%
+[150 word or longer reply to Last Answer]</t>
+  </si>
+  <si>
+    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. The actions should clearly define a WHAT and a HOW. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal AIA site pages if suitable.
+The summary should follow the format below, where the descriptions in [ ] should be generated by you, and the descriptions between % % will be provided by me. Please use github flavored markdown and use bullets if relevant.
+[Recap of our discussion, key concerns, problems and potential approaches, approximately 200 words]
+#### Action Plan
+Below are some suggestions of actions you can take. You understand your situation best, so please edit and use these as a starting point or create your own. Consider adding these to your PDD goals.
+::Action:: [Suggested Action]
+::Action:: [Suggested Action]
+::Action:: [Suggested Action]</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I initiatives I have already taken
+Ask what I am good at and dislike, and what i'm doing to further my learning and skillset, point me to AIA resources where appropriate.
+Ask what I have been doing to further my network.
+- Skills, experience, and impact
+- Interest and demonstrated commitment to learn the skills needed for the next level
+If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
+- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
+  </si>
+  <si>
+    <t>Analyze our conversation from the perspective of AIA, and provide employee insights in a structured format:
+1. Sentiment Analysis - Assign scores (0-100) for the following emotions: Satisfaction, Dissatisfaction, Anger, Fear, Surprise, Discust, Anxiety, Enthusiasm, Boredom, Confidence. Display as a table (Github markdown). Use a standardized methodology, which includes pre-processing, feature extraction, sentiment lexicon or a pre-trained language model, and validation to ensure consistent and reliable sentiment scores.
+2a. Areas for growth and development: Qualitative analysis. 
+2b. Areas for growth and development: Standardised key themes and skill areas.
+3a. Company culture and values alignment: score the level of alignment between employee values and company culture (low, neutral, high)
+3b. Company culture and values alignment: qualitative analysis to help understand the underlying reasons for misalignment's.
+4. Risk of leaving: Quantitative approach. Identifying specific phrases or keywords indicating dissatisfaction or intent to leave can be quantified. (very unlikely, unlikely, neutral, likely, very likely)
+5a. Feedback on company policies and procedures: Qualitative approach. Analyse employee feedback and suggestions. Comparisons can be made by categorizing similar feedback themes across employees.
+5b. Feedback on company policies and procedures: list of key standardised themes.
+6a. Employee goals and aspirations: Qualitative approach. 
+6b. Employee goals and aspirations: List of key standardised themes.
+7. Barriers to success: Qualitative approach. Identify the challenges and obstacles faced by employees. 
+8. Overall satisfaction: Quantitative approach. Employee satisfaction can be measured through standardized survey questions or by analyzing sentiment scores in the conversation. This allows for easy comparison across employees.</t>
   </si>
   <si>
     <t>My name is {user_name}, I am a {band} in {function}. I am {position}.
@@ -451,284 +734,19 @@
 {question_2}
 {reply_2}
 ---
-Taking into consideration the above, guide my thought process through a sequence of questions and proposed answers. Please intitiate the thought-provoking sequence of questions by asking me one question and only ask the next one when an answer is provided. With each question, provide several suggestions.
+Taking into consideration the above, guide my thought process through a sequence of questions and proposed answers. Please intitiate the thought-provoking sequence of questions by asking me one question and only ask the next one when an answer is provided. With each question, ensure it is relevant to my role, and provide several suggestions. Format the question in bold using github flavoured markup.
 {question_guidance}
-The questions should be asked one at a time, only move onto the next question after I have replied. 
+The questions should be asked one at a time, only move onto the next question after I have replied.  
 Ask me exactly {max_questions} questions. 
 Our conversation should progress as follows:
 {question_format}</t>
-  </si>
-  <si>
-    <t>mission</t>
-  </si>
-  <si>
-    <t>### Purpose Statement
-AIA's Purpose is to help people live Healthier, Longer, Better Lives, in every community in which we live and work, with products and policies that don't just protect lives but help make lives healthier, longer and better.</t>
-  </si>
-  <si>
-    <t>mission
-promotions
-learning</t>
-  </si>
-  <si>
-    <t>mission
-learning</t>
-  </si>
-  <si>
-    <t>promotions
-learning
-mission</t>
-  </si>
-  <si>
-    <t>learning
-mental_wellbeing
-mission</t>
-  </si>
-  <si>
-    <t>learning
-promotions
-mission</t>
-  </si>
-  <si>
-    <t>learning
-promotions
-mental_wellbeing
-mission</t>
-  </si>
-  <si>
-    <t>learning
-mental_wellbeing
-promotions
-mission</t>
-  </si>
-  <si>
-    <t>What symptoms of burnout or signs of excessive stress do you experience regularly?</t>
-  </si>
-  <si>
-    <t>Have you identified any areas for improvement in your current role?</t>
-  </si>
-  <si>
-    <t>Are there any specific aspects of leadership you want to improve or develop further?</t>
-  </si>
-  <si>
-    <t>Are there any new habits would you like to develop to improve your overall well-being and success?</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Help me explore time management techniques and identify my priorities.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to create a personalised action plan to optimise my productivity and achieve a better work life balance.</t>
-  </si>
-  <si>
-    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new role and responsibility.
-Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and responsibilities.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into a new role.</t>
-  </si>
-  <si>
-    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new team and responsibility.
-Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and responsibilities.
-Help me plan action steps to ensure a smooth and successful transition.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into a new role.</t>
-  </si>
-  <si>
-    <t>TBC…</t>
-  </si>
-  <si>
-    <t>We'll understand the process of building a strong personal brand. We'll help you identify your unique selling points, develop a consistent message, and create a plan to promote yourself effectively across various platforms.</t>
-  </si>
-  <si>
-    <t>Help me identify why I'm feeling stressed.
-Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
-Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
-Ask what I initiatives I have already taken, and what I'm doing to recover or adapt my workload.
-Ask if I have attended AIA's mental wellbeing workshop, and recommend me to sign up if I have not.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I initiatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask if I have discussed with my manager.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel a lack of stimulation or challenge, help me decide on some meaningful next steps I can feel more challenged, create a plan to discuss with my manager and take proactive steps to enhance my job satisfaction.</t>
-  </si>
-  <si>
-    <t>Help me identify what's challenging my work life balance.
-Ask what I initiatives I have already taken to improve it, and what I'm in control of.
-Ask what I am doing to manage my time and set boundaries.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me be clear on how I can improve my work-life balance and identify meaningful next steps to achieve a healthier work-life balance.</t>
-  </si>
-  <si>
-    <t>Help me identify areas for development and what resources are available to me.
-Ask what I initiatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify areas for development, explore relevant resources, and create a meaningful action plan to enhance my skills and stay competitive in my industry and role.</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and discuss my leadership potential.
-Ask what I initiatives I have already taken.
-Explore strategies to grow my leadership skills.
-Ask what I am doing to further my learning and skillset.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to refine my leadership potential and explore strategies to grow my leadership skills. By the end of our discussion, I should have identified key competencies, target areas for improvement, and have an action plan to excel as a leader.</t>
-  </si>
-  <si>
-    <t>Help me understand how to build a strong personal brand.
-Help me to identify my unique selling points and develop a consistent message.
-Ask what I initiatives I have already taken.
-Ask what I am doing to further promote myself across the business and network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify my unique selling points, and create a plan to build a strong personal brand and promote myself effectively across various platforms.</t>
-  </si>
-  <si>
-    <t>Challenge my current performance and help me identify areas for improvement.
-Ask what I initiatives I have already taken.
-Ask what I am doing to enhance my productivity, efficiency and quality work.
-Ask what additional learning I am doing.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me develop a tailored plan to enhance my productivity, efficiency, and overall work quality, setting me up for continued success.</t>
-  </si>
-  <si>
-    <t>Ask what I development programs I have already taken.
-Ask me about my career goals, and help me identify what learning programs would be most appropriate and useful.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some AIA development programs to sign up for, and prompt me to take action.</t>
-  </si>
-  <si>
-    <t>Ask me about what habits are working well now, and which could be improved.
-Help me identify the habits that impact my professional and personal life.
-Hep me identify areas for improvement and habits that I should start or stop.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to identify areas for improvement and create a plan to cultivate healthier, more productive habits to support my success.</t>
-  </si>
-  <si>
-    <t>Using inspiration from the book, 'The First 90 Days', ask me questions about my new team and responsibility.
-Guide me through the types of questions I should be asking myself, and what I should be finding out about my new role, manager and team expectations and responsibilities.
-Help me plan action steps to ensure a smooth and successful transition.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a plan to integrate smoothly into my new responsibilities.</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I initiatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask what I have been doing to find other talent.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me create a smooth transition plan to ensure continuity and success.</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I initiatives I have already taken.
-Ask what I am doing to further my learning and skillset.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel stuck in my role, and help me decide on some meaningful next steps I can take.</t>
-  </si>
-  <si>
-    <t>Career@AIA</t>
-  </si>
-  <si>
-    <t>Let's cover the basics.</t>
-  </si>
-  <si>
-    <t>Thank you for taking the time to explore your career at AIA. We are here to help you clarify and navigate your professional journey within our organisation. Our goal is to provide personalised guidance, and where possible, connect you with resources that help in your current and future roles.
-We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.
-Any information provided is confidential and will not be shared further.</t>
-  </si>
-  <si>
-    <t>Choose a topic below and share some initial background.</t>
-  </si>
-  <si>
-    <t>intro_prompt</t>
-  </si>
-  <si>
-    <t>Reply with a brief welcome, and share that next we will select a topic to discuss today. No more than 50 words. Do not sign off. Do not ask any questions at this stage.</t>
-  </si>
-  <si>
-    <t>We will work through a series of prompts, designed to guide your thinking, and create actionable steps you can take.
-During our coaching session, please avoid providing any personal information such as address, phone number, date of birth, account details, etc.</t>
-  </si>
-  <si>
-    <t>**Thanks for taking the time to discuss your career today. Below is a summary of our conversation, and some suggested actions steps you can take. As an AI coach, you should use this as guidance, not an absolute directive. You should use your own judgement and consider the advice in the context of your unique situation and goals. Please also check information with reliable sources, especially when making important decisions.**</t>
-  </si>
-  <si>
-    <t>We'll focus on your ongoing professional growth, identify areas for development, explore relevant resources, and create a plan to enhance your skills and stay competitive in your industry.</t>
-  </si>
-  <si>
-    <t>We'll discuss your leadership potential and explore strategies to grow your leadership skills. During this session we identify key competencies, target areas for improvement, and create a plan to help you excel as a leader.</t>
-  </si>
-  <si>
-    <t>We'll discuss your aspirations and purpose. During the session, we identify a career path that resonates with you, set realistic goals and create an action plan.</t>
-  </si>
-  <si>
-    <t>We'll explore your ambitions for promotion and the criteria at AIA. During the session, we'll assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
-  </si>
-  <si>
-    <t>We'll discuss the importance of succession planning in your career and organisation. We will evaluate potential successors, discuss how to develop their skills, and create a smooth transition plan to ensure continuity and success.</t>
-  </si>
-  <si>
-    <t>We'll address your feelings of stagnation and explore potential opportunities for growth. During the session, we'll reassess your goals, identify new challenges, and develop a plan to reinvigorate your career journey.</t>
-  </si>
-  <si>
-    <t>We'll address stress and burnout in your professional life. During the session, we'lle xplore the underlying causes, identify coping strategies, and create a plan to enhance your resilience and overall well-being.</t>
-  </si>
-  <si>
-    <t>We'll examine your current role and identify areas where you could be more challenged. During the session, we'll create a plan to discuss these opportunities with your manager and take proactive steps to enhance your job satisfaction.</t>
-  </si>
-  <si>
-    <t>We'll discuss strategies to achieve a healthier work-life balance. During the session, we'll explore time management techniques, set boundaries, and create a plan that supports both your professional and personal well-being.</t>
-  </si>
-  <si>
-    <t>We'll evaluate your current performance and identify areas for improvement. During the session, we'll develop a tailored plan to enhance your productivity, efficiency, and overall work quality, setting you up for continued success.</t>
-  </si>
-  <si>
-    <t>We'll discuss the various AIA development programs available to support your growth. During the session, we'll identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
-  </si>
-  <si>
-    <t>We'll explore the habits that impact your professional and personal life. During the session, we'll identify areas for improvement and create a plan to cultivate healthier, more productive habits to support your success.</t>
-  </si>
-  <si>
-    <t>We'll focus on improving your time management skills. During the session, we'll explore various techniques, identify your priorities, and create a personalised plan to optimise your productivity and achieve a better work-life balance.</t>
-  </si>
-  <si>
-    <t>We'll navigate the transition to AIA. During the session, we'll discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
-  </si>
-  <si>
-    <t>We'll cover your transition to a new team or role. During the session, we'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
-  </si>
-  <si>
-    <t>We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
-  </si>
-  <si>
-    <t>[Brief introduction, then ask Question 1, provided by you]
-%Answer 1, written by me%
-[150 word or longer reply to Answer 1, then Question 2, provided by you]
-%Answer 2, written by me%
-...
-[150 word or longer reply to Answer N-1, then Question N, provided by you]
-%Answer N, written by me%
-[150 word or longer reply to Answer N]</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I initiatives I have already taken.
-Ask what I am good at and dislike, and what i'm doing to further my learning and skillset, point me to AIA resources where appropriate.
-Ask what I have been doing to further my network.
-- Skills, experience, and impact
-- Interest and demonstrated commitment to learn the skills needed for the next level
-If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
-- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
-  </si>
-  <si>
-    <t>Challenge me and help me refine my career aspirations and objectives.
-Help me identify my purpose, strengths, and values.
-Help me reflect on what i'm good at, self-assess my weaknesses and increase my own awareness.
-Ask what I initiatives I have already taken.
-Ask what I am doing to further my learning and skillset, point me to AIA resources where appropriate.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine my career goals, and help me decide on some meaningful next steps I can take.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +770,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF260000"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -774,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -825,6 +849,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -841,10 +866,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1144,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,10 +1200,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1191,7 +1212,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1204,19 +1225,31 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1224,9 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B67F92-929D-4748-A060-6C905D3C4127}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1258,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1275,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1297,10 +1328,10 @@
         <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1316,13 +1347,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1351,7 +1382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5990ADE6-0F99-4D0A-96A1-792BDD041915}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1555,11 +1588,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4B99F-D286-4F78-BAC8-23AC2E322EDE}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1588,7 +1621,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>41</v>
@@ -1623,19 +1656,19 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D4" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -1644,19 +1677,19 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -1665,19 +1698,19 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D6" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -1695,20 +1728,20 @@
         <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D8" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
@@ -1718,22 +1751,22 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="5"/>
@@ -1743,20 +1776,20 @@
         <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
@@ -1766,22 +1799,22 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
@@ -1803,22 +1836,22 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
@@ -1828,20 +1861,20 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" s="9">
         <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
@@ -1851,22 +1884,22 @@
         <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>71</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
@@ -1876,22 +1909,22 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
@@ -1901,20 +1934,20 @@
         <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="5"/>
@@ -1924,22 +1957,22 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="5"/>
@@ -1949,22 +1982,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D19" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="5"/>
@@ -1986,20 +2019,20 @@
         <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D21" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="5"/>
@@ -2009,22 +2042,22 @@
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D22" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="5"/>
@@ -2034,22 +2067,22 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D23" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -2064,21 +2097,21 @@
     </row>
     <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
       <c r="D25" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -2105,42 +2138,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D05300-D3C3-44CE-BAEA-3361A0E58396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22608" yWindow="1200" windowWidth="14424" windowHeight="14400" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="19824" yWindow="1860" windowWidth="18816" windowHeight="14400" activeTab="2" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5990ADE6-0F99-4D0A-96A1-792BDD041915}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,10 +1589,10 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D05300-D3C3-44CE-BAEA-3361A0E58396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{66D05300-D3C3-44CE-BAEA-3361A0E58396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD084ED1-E897-4BC3-9760-557B50F872C4}"/>
   <bookViews>
-    <workbookView xWindow="19824" yWindow="1860" windowWidth="18816" windowHeight="14400" activeTab="2" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="8676" yWindow="1860" windowWidth="29964" windowHeight="14400" activeTab="4" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -693,17 +693,6 @@
 ::Action:: [Suggested Action]</t>
   </si>
   <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I initiatives I have already taken
-Ask what I am good at and dislike, and what i'm doing to further my learning and skillset, point me to AIA resources where appropriate.
-Ask what I have been doing to further my network.
-- Skills, experience, and impact
-- Interest and demonstrated commitment to learn the skills needed for the next level
-If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
-- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
-  </si>
-  <si>
     <t>Analyze our conversation from the perspective of AIA, and provide employee insights in a structured format:
 1. Sentiment Analysis - Assign scores (0-100) for the following emotions: Satisfaction, Dissatisfaction, Anger, Fear, Surprise, Discust, Anxiety, Enthusiasm, Boredom, Confidence. Display as a table (Github markdown). Use a standardized methodology, which includes pre-processing, feature extraction, sentiment lexicon or a pre-trained language model, and validation to ensure consistent and reliable sentiment scores.
 2a. Areas for growth and development: Qualitative analysis. 
@@ -740,6 +729,17 @@
 Ask me exactly {max_questions} questions. 
 Our conversation should progress as follows:
 {question_format}</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I initiatives I have already taken.
+Ask what i'm doing to further my learning and skillset, point me to AIA resources where appropriate.
+Ask what I have been doing to further my network.
+If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
+- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
+- Skills, experience, and impact
+- Interest and demonstrated commitment to learn the skills needed for the next level
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1212,7 +1212,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1238,7 +1238,7 @@
         <v>177</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5990ADE6-0F99-4D0A-96A1-792BDD041915}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1588,11 +1588,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4B99F-D286-4F78-BAC8-23AC2E322EDE}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,7 +1680,7 @@
         <v>163</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{66D05300-D3C3-44CE-BAEA-3361A0E58396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD084ED1-E897-4BC3-9760-557B50F872C4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{66D05300-D3C3-44CE-BAEA-3361A0E58396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B19A6D1-E50B-4BA9-A024-D5BC57EE563F}"/>
   <bookViews>
-    <workbookView xWindow="8676" yWindow="1860" windowWidth="29964" windowHeight="14400" activeTab="4" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="25200" windowHeight="14400" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="functions" sheetId="3" r:id="rId3"/>
     <sheet name="bands" sheetId="6" r:id="rId4"/>
     <sheet name="topic_prompts" sheetId="5" r:id="rId5"/>
-    <sheet name="aia_info" sheetId="7" r:id="rId6"/>
+    <sheet name="company_info" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -157,9 +157,6 @@
     <t>Select…</t>
   </si>
   <si>
-    <t>aia_info</t>
-  </si>
-  <si>
     <t>prompt</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>question_format</t>
   </si>
   <si>
-    <t>AIA development programs</t>
-  </si>
-  <si>
     <t>---Managing Teams---</t>
   </si>
   <si>
@@ -232,9 +226,6 @@
     <t>Changing team or role</t>
   </si>
   <si>
-    <t>Joining AIA</t>
-  </si>
-  <si>
     <t>Taking on new responsibilities</t>
   </si>
   <si>
@@ -280,9 +271,6 @@
     <t>question_guidance</t>
   </si>
   <si>
-    <t>You are an internal career coach at AIA. Your aim is to guide me to identify specfic areas of personal and professional development to meet my short and long-term career aspirations, in AIA or elsewhere. Your tone should be professional, friendly and empathetic. Use UK english.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  --- Challenges ---</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>What shall we discuss?</t>
   </si>
   <si>
-    <t>I support and develop AIA's Premier Agency channel through programmes designed to raise the productivity and professionalism of our agency service.</t>
-  </si>
-  <si>
     <t>I partner with the business to attract and retain the best people through workforce planning and recruitment, organisation culture and employee engagement, performance management and capability building, and rewards and recognition.</t>
   </si>
   <si>
@@ -307,9 +292,6 @@
     <t>I develop, deploy and support our regions with innovative technologies to help create a digital environment that is simpler, easier and more secure for our businesses and customers.</t>
   </si>
   <si>
-    <t>I help AIA to engage in a meaningful manner with customers and other stakeholders. I ensure the consistency of AIA’s messaging across all channels, design marketing campaigns to manage customer advocacy and experience, and use data insights to make key business decisions.</t>
-  </si>
-  <si>
     <t>I support our customers, employees, agents and distribution partners across the buy, service and claims journeys by developing and delivering market leading experience through our underwriting, customer servicing and claims teams.</t>
   </si>
   <si>
@@ -319,9 +301,6 @@
     <t>I support corporate clients by providing employee benefits, pensions and voluntary solutions to cover workforce needs and to assist with talent retention.</t>
   </si>
   <si>
-    <t>I collaborate and partner with banks, independent financial advisory firms, brokerage bodies and other third-party intermediates, to market AIA products through various distribution channels.</t>
-  </si>
-  <si>
     <t>I ensure compliance with laws and regulations, managing legal risks, and providing expert advice on legal matters. I draft and review contracts, handle litigation, protect intellectual property, and offer guidance on corporate governance. Additionally, I support mergers and acquisitions, and maintain strong relationships with external counsel and regulatory authorities.</t>
   </si>
   <si>
@@ -337,12 +316,6 @@
     <t>Take action.</t>
   </si>
   <si>
-    <t>I safeguard AIA's financial wellbeing by ensuring our products are well-designed and suitably priced. I also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
-  </si>
-  <si>
-    <t>I safeguard AIA’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. I am also responsible for all external reporting including statutory and regulatory filings.</t>
-  </si>
-  <si>
     <t>topic</t>
   </si>
   <si>
@@ -358,32 +331,6 @@
     <t>mental_wellbeing</t>
   </si>
   <si>
-    <t>#### Learning
-Our learning culture actively supports people in their current roles, while providing a platform for growth and development within AIA. Our focus on learning is a key part of our ambition to ensure our people can upskill, reskill, work more flexibly and adapt to the changing world of work. We take a holistic approach to learning and development that includes knowledge and skills accumulated from on-the-job experiences, mobility, collaborative projects, structured virtual lessons and digital self-leaming, supported by mentoring and coaching. 
-We believe that career mobility and assignments in different business units or functions provide our employees with new opportunities. These assignments serve as platforms to learn new skills and help develop the individual's AIA network. 
-To ensure that we continue to develop talent for the future, we continuously research the skills and knowledge requirements of our industry and review feedback from our employees, to design the programmes that address these needs. In addition, our people are required to regularly complete mandatory training on a range of technical, governance and conduct-related topics. 
-We have launched, and are in the process of designing additional programmes to incubate new talent capabilities and upskill employees in core lines of business across the Group including the AIA Analytics Academy which focuses on building data analytics and business analysis capability across all levels in AIA. The "Converge' learning journey is a bespoke 10-month reskilling programme with apprenticeship opportunities for employees to equip them for business analysis roles. 
-We also upskill senior leaders with a stronger understanding of the power of analytics through the "Analytics for Leaders" programme. The AIA Agile Academy, which currently provides two reskilling programmes — the "Agile Practitioner" and the "Agile Team Lead" — to help AIA build internal capability to drive business transformation. The AIA Distribution Leadership Programme, which provides a platform for our most senior distribution leaders to further develop their distribution skill sets. 
-Digital content and delivery methods play an important role in shaping a culture of continuous learning at AIA. All our business units provide employees with access to the AIA Learning Hub, an online platform which provides access to thousands of digital learning courses. In 2022, we curated digital learning programmes with over 110 modules to support learning needs of employees in management and specialist career tracks. 
-AIA Learning Hub can be accessed at www.aia.com/learninghub.
-You can sign up for 'Agile Team Lead' here www.aia.com/agile-sign-up
-You can sign up for 'Agile Practitioner' here www.aia.com/agile-sign-up
-You can sign up for 'AIA Distribution Leadership' here www.aia.com/distro_leader_sign-up</t>
-  </si>
-  <si>
-    <t>### Promotions
-Promotions are a combination of:
-- Business need for the role at a more senior band
-- Skills, experience, and impact
-- Interest and demonstrated commitment to learn the skills needed for the next level
-Promotion criteria is available here: www.aia.com/promotion_criteria</t>
-  </si>
-  <si>
-    <t>### Mental Well-being
-AIA offers mental wellbeing workshops for employees and managers. 
-You can sign up at www.aia.com/mental-well-being sign-up.</t>
-  </si>
-  <si>
     <t>question1</t>
   </si>
   <si>
@@ -405,18 +352,12 @@
     <t>Can you describe your current level of performance and any feedback you've received?</t>
   </si>
   <si>
-    <t>Do you have any specific career goals and areas for development within AIA?</t>
-  </si>
-  <si>
     <t>Can you identify any habits that might be negatively affecting your professional or personal life?</t>
   </si>
   <si>
     <t>How do you currently prioritise and manage your tasks and responsibilities?</t>
   </si>
   <si>
-    <t>What is your new role within AIA and what are your key responsibilities?</t>
-  </si>
-  <si>
     <t>What is your previous role and what will be your new role within the organisation?</t>
   </si>
   <si>
@@ -427,10 +368,6 @@
   </si>
   <si>
     <t>mission</t>
-  </si>
-  <si>
-    <t>### Purpose Statement
-AIA's Purpose is to help people live Healthier, Longer, Better Lives, in every community in which we live and work, with products and policies that don't just protect lives but help make lives healthier, longer and better.</t>
   </si>
   <si>
     <t>mission
@@ -501,14 +438,6 @@
   </si>
   <si>
     <t>We'll understand the process of building a strong personal brand. We'll help you identify your unique selling points, develop a consistent message, and create a plan to promote yourself effectively across various platforms.</t>
-  </si>
-  <si>
-    <t>Help me identify why I'm feeling stressed.
-Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
-Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
-Ask what I initiatives I have already taken, and what I'm doing to recover or adapt my workload.
-Ask if I have attended AIA's mental wellbeing workshop, and recommend me to sign up if I have not.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
   </si>
   <si>
     <t>Challenge my answers, and ask relevant questions for a deeper understanding.
@@ -555,11 +484,6 @@
 Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me develop a tailored plan to enhance my productivity, efficiency, and overall work quality, setting me up for continued success.</t>
   </si>
   <si>
-    <t>Ask what I development programs I have already taken.
-Ask me about my career goals, and help me identify what learning programs would be most appropriate and useful.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some AIA development programs to sign up for, and prompt me to take action.</t>
-  </si>
-  <si>
     <t>Ask me about what habits are working well now, and which could be improved.
 Help me identify the habits that impact my professional and personal life.
 Hep me identify areas for improvement and habits that I should start or stop.
@@ -586,15 +510,7 @@
 Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine why I feel stuck in my role, and help me decide on some meaningful next steps I can take.</t>
   </si>
   <si>
-    <t>Career@AIA</t>
-  </si>
-  <si>
     <t>Let's cover the basics.</t>
-  </si>
-  <si>
-    <t>Thank you for taking the time to explore your career at AIA. We are here to help you clarify and navigate your professional journey within our organisation. Our goal is to provide personalised guidance, and where possible, connect you with resources that help in your current and future roles.
-We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.
-Any information provided is confidential and will not be shared further.</t>
   </si>
   <si>
     <t>Choose a topic below and share some initial background.</t>
@@ -622,9 +538,6 @@
     <t>We'll discuss your aspirations and purpose. During the session, we identify a career path that resonates with you, set realistic goals and create an action plan.</t>
   </si>
   <si>
-    <t>We'll explore your ambitions for promotion and the criteria at AIA. During the session, we'll assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
-  </si>
-  <si>
     <t>We'll discuss the importance of succession planning in your career and organisation. We will evaluate potential successors, discuss how to develop their skills, and create a smooth transition plan to ensure continuity and success.</t>
   </si>
   <si>
@@ -643,31 +556,16 @@
     <t>We'll evaluate your current performance and identify areas for improvement. During the session, we'll develop a tailored plan to enhance your productivity, efficiency, and overall work quality, setting you up for continued success.</t>
   </si>
   <si>
-    <t>We'll discuss the various AIA development programs available to support your growth. During the session, we'll identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
-  </si>
-  <si>
     <t>We'll explore the habits that impact your professional and personal life. During the session, we'll identify areas for improvement and create a plan to cultivate healthier, more productive habits to support your success.</t>
   </si>
   <si>
     <t>We'll focus on improving your time management skills. During the session, we'll explore various techniques, identify your priorities, and create a personalised plan to optimise your productivity and achieve a better work-life balance.</t>
   </si>
   <si>
-    <t>We'll navigate the transition to AIA. During the session, we'll discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
-  </si>
-  <si>
     <t>We'll cover your transition to a new team or role. During the session, we'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
   </si>
   <si>
     <t>We'll help you identify transferable skills, set new goals, and create a plan to adapt to your new responsibilities, ensuring a smooth and successful transition.</t>
-  </si>
-  <si>
-    <t>Challenge me and help me refine my career aspirations and objectives.
-Help me identify my purpose, strengths, and values.
-Help me reflect on what i'm good at, self-assess my weaknesses and increase my own awareness.
-Ask what I initiatives I have already taken.
-Ask what I am doing to further my learning and skillset, point me to AIA resources where appropriate.
-Ask what I have been doing to further my network.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine my career goals, and help me decide on some meaningful next steps I can take.</t>
   </si>
   <si>
     <t>analysis_prompt</t>
@@ -683,7 +581,25 @@
 [150 word or longer reply to Last Answer]</t>
   </si>
   <si>
-    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. The actions should clearly define a WHAT and a HOW. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal AIA site pages if suitable.
+    <t>company_info</t>
+  </si>
+  <si>
+    <t>Challenge me and help me refine my career aspirations and objectives.
+Help me identify my purpose, strengths, and values.
+Help me reflect on what i'm good at, self-assess my weaknesses and increase my own awareness.
+Ask what I initiatives I have already taken.
+Ask what I am doing to further my learning and skillset, point me to company resources where appropriate.
+Ask what I have been doing to further my network.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me refine my career goals, and help me decide on some meaningful next steps I can take.</t>
+  </si>
+  <si>
+    <t>We'll explore your ambitions for promotion and the criteria. During the session, we'll assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
+  </si>
+  <si>
+    <t>You are an internal career coach at Company. Your aim is to guide me to identify specfic areas of personal and professional development to meet my short and long-term career aspirations, in Company or elsewhere. Your tone should be professional, friendly and empathetic. Use UK english.</t>
+  </si>
+  <si>
+    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. The actions should clearly define a WHAT and a HOW. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal Company site pages if suitable.
 The summary should follow the format below, where the descriptions in [ ] should be generated by you, and the descriptions between % % will be provided by me. Please use github flavored markdown and use bullets if relevant.
 [Recap of our discussion, key concerns, problems and potential approaches, approximately 200 words]
 #### Action Plan
@@ -693,7 +609,7 @@
 ::Action:: [Suggested Action]</t>
   </si>
   <si>
-    <t>Analyze our conversation from the perspective of AIA, and provide employee insights in a structured format:
+    <t>Analyze our conversation from the perspective of Company, and provide employee insights in a structured format:
 1. Sentiment Analysis - Assign scores (0-100) for the following emotions: Satisfaction, Dissatisfaction, Anger, Fear, Surprise, Discust, Anxiety, Enthusiasm, Boredom, Confidence. Display as a table (Github markdown). Use a standardized methodology, which includes pre-processing, feature extraction, sentiment lexicon or a pre-trained language model, and validation to ensure consistent and reliable sentiment scores.
 2a. Areas for growth and development: Qualitative analysis. 
 2b. Areas for growth and development: Standardised key themes and skill areas.
@@ -708,6 +624,75 @@
 8. Overall satisfaction: Quantitative approach. Employee satisfaction can be measured through standardized survey questions or by analyzing sentiment scores in the conversation. This allows for easy comparison across employees.</t>
   </si>
   <si>
+    <t>Career@Company</t>
+  </si>
+  <si>
+    <t>Thank you for taking the time to explore your career at Company. We are here to help you clarify and navigate your professional journey within our organisation. Our goal is to provide personalised guidance, and where possible, connect you with resources that help in your current and future roles.
+We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.
+Any information provided is confidential and will not be shared further.</t>
+  </si>
+  <si>
+    <t>I safeguard Company's financial wellbeing by ensuring our products are well-designed and suitably priced. I also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
+  </si>
+  <si>
+    <t>I support and develop Company's Premier Agency channel through programmes designed to raise the productivity and professionalism of our agency service.</t>
+  </si>
+  <si>
+    <t>I safeguard Company’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. I am also responsible for all external reporting including statutory and regulatory filings.</t>
+  </si>
+  <si>
+    <t>I help Company to engage in a meaningful manner with customers and other stakeholders. I ensure the consistency of Company’s messaging across all channels, design marketing campaigns to manage customer advocacy and experience, and use data insights to make key business decisions.</t>
+  </si>
+  <si>
+    <t>I collaborate and partner with banks, independent financial advisory firms, brokerage bodies and other third-party intermediates, to market Company products through various distribution channels.</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I initiatives I have already taken.
+Ask what i'm doing to further my learning and skillset, point me to Company resources where appropriate.
+Ask what I have been doing to further my network.
+If I tell you I have been passed over for promotion (or similar), remind me that at Company, promotions are a combination of:
+- Business need for the role at a more senior band. If there is not sufficient business need, Company may not need to promote employees.
+- Skills, experience, and impact
+- Interest and demonstrated commitment to learn the skills needed for the next level
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
+  </si>
+  <si>
+    <t>Help me identify why I'm feeling stressed.
+Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
+Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
+Ask what I initiatives I have already taken, and what I'm doing to recover or adapt my workload.
+Ask if I have attended Company's mental wellbeing workshop, and recommend me to sign up if I have not.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
+  </si>
+  <si>
+    <t>Company development programs</t>
+  </si>
+  <si>
+    <t>We'll discuss the various Company development programs available to support your growth. During the session, we'll identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
+  </si>
+  <si>
+    <t>Ask what I development programs I have already taken.
+Ask me about my career goals, and help me identify what learning programs would be most appropriate and useful.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some Company development programs to sign up for, and prompt me to take action.</t>
+  </si>
+  <si>
+    <t>Do you have any specific career goals and areas for development within Company?</t>
+  </si>
+  <si>
+    <t>Joining Company</t>
+  </si>
+  <si>
+    <t>We'll navigate the transition to Company. During the session, we'll discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
+  </si>
+  <si>
+    <t>What is your new role within Company and what are your key responsibilities?</t>
+  </si>
+  <si>
+    <t>### Purpose Statement
+Company's Purpose is to help people live Healthier, Longer, Better Lives, in every community in which we live and work, with products and policies that don't just protect lives but help make lives healthier, longer and better.</t>
+  </si>
+  <si>
     <t>My name is {user_name}, I am a {band} in {function}. I am {position}.
 I have the following experience:
 {experience}
@@ -715,7 +700,7 @@
 {function_detail}
 I would like to discuss: {topic_name}
 ---
-{aia_info}
+{company_info}
 ---
 This is further background based on two questions I have been asked:
 {question_1}
@@ -731,15 +716,30 @@
 {question_format}</t>
   </si>
   <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I initiatives I have already taken.
-Ask what i'm doing to further my learning and skillset, point me to AIA resources where appropriate.
-Ask what I have been doing to further my network.
-If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
-- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
+    <t>#### Learning
+Our learning culture actively supports people in their current roles, while providing a platform for growth and development within Company. Our focus on learning is a key part of our ambition to ensure our people can upskill, reskill, work more flexibly and adapt to the changing world of work. We take a holistic approach to learning and development that includes knowledge and skills accumulated from on-the-job experiences, mobility, collaborative projects, structured virtual lessons and digital self-leaming, supported by mentoring and coaching. 
+We believe that career mobility and assignments in different business units or functions provide our employees with new opportunities. These assignments serve as platforms to learn new skills and help develop the individual's Company network. 
+To ensure that we continue to develop talent for the future, we continuously research the skills and knowledge requirements of our industry and review feedback from our employees, to design the programmes that address these needs. In addition, our people are required to regularly complete mandatory training on a range of technical, governance and conduct-related topics. 
+We have launched, and are in the process of designing additional programmes to incubate new talent capabilities and upskill employees in core lines of business across the Group including the Company Analytics Academy which focuses on building data analytics and business analysis capability across all levels in Company. The "Converge' learning journey is a bespoke 10-month reskilling programme with apprenticeship opportunities for employees to equip them for business analysis roles. 
+We also upskill senior leaders with a stronger understanding of the power of analytics through the "Analytics for Leaders" programme. The Company Agile Academy, which currently provides two reskilling programmes — the "Agile Practitioner" and the "Agile Team Lead" — to help Company build internal capability to drive business transformation. The Company Distribution Leadership Programme, which provides a platform for our most senior distribution leaders to further develop their distribution skill sets. 
+Digital content and delivery methods play an important role in shaping a culture of continuous learning at Company. All our business units provide employees with access to the Company Learning Hub, an online platform which provides access to thousands of digital learning courses. In 2022, we curated digital learning programmes with over 110 modules to support learning needs of employees in management and specialist career tracks. 
+Company Learning Hub can be accessed at www.company.com/learninghub.
+You can sign up for 'Agile Team Lead' here www.company.com/agile-sign-up
+You can sign up for 'Agile Practitioner' here www.company.com/agile-sign-up
+You can sign up for 'Company Distribution Leadership' here www.company.com/distro_leader_sign-up</t>
+  </si>
+  <si>
+    <t>### Promotions
+Promotions are a combination of:
+- Business need for the role at a more senior band
 - Skills, experience, and impact
 - Interest and demonstrated commitment to learn the skills needed for the next level
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
+Promotion criteria is available here: www.company.com/promotion_criteria</t>
+  </si>
+  <si>
+    <t>### Mental Well-being
+Company offers mental wellbeing workshops for employees and managers. 
+You can sign up at www.company.com/mental-well-being sign-up.</t>
   </si>
 </sst>
 </file>
@@ -866,6 +866,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,9 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1183,10 +1185,10 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -1194,34 +1196,34 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1230,15 +1232,15 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1269,16 +1271,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -1289,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1306,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1314,7 +1316,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1325,18 +1327,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1344,16 +1346,16 @@
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1370,8 +1372,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7E2F4BF8-9C1B-455E-A97B-EA51A27378EE}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{8AC66726-ED59-4CF3-85C4-52A114B1F2D3}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Career@AIA" xr:uid="{7E2F4BF8-9C1B-455E-A97B-EA51A27378EE}"/>
+    <hyperlink ref="B7" r:id="rId2" display="Career@AIA" xr:uid="{8AC66726-ED59-4CF3-85C4-52A114B1F2D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1405,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1413,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1421,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1429,7 +1431,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1437,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1445,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1453,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1461,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -1469,7 +1471,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1477,7 +1479,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1485,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1493,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1501,7 +1503,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1588,11 +1590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4B99F-D286-4F78-BAC8-23AC2E322EDE}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1612,25 +1614,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1644,7 +1646,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="1"/>
@@ -1653,43 +1655,43 @@
     </row>
     <row r="4" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D4" s="9">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -1698,25 +1700,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D6" s="9">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
@@ -1725,103 +1727,103 @@
     </row>
     <row r="8" spans="1:9" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D8" s="9">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="D9" s="9">
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D10" s="9">
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D11" s="9">
         <v>4</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1836,22 +1838,22 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D13" s="9">
         <v>4</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
@@ -1861,150 +1863,150 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D14" s="9">
         <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D15" s="9">
         <v>4</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D16" s="9">
         <v>4</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D17" s="9">
         <v>4</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D18" s="9">
         <v>4</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D19" s="9">
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="6"/>
@@ -2016,79 +2018,79 @@
     </row>
     <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D21" s="9">
         <v>4</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D22" s="9">
         <v>4</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D23" s="9">
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
@@ -2097,7 +2099,7 @@
     </row>
     <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
@@ -2105,13 +2107,13 @@
         <v>4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -2138,42 +2140,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{66D05300-D3C3-44CE-BAEA-3361A0E58396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B19A6D1-E50B-4BA9-A024-D5BC57EE563F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{66D05300-D3C3-44CE-BAEA-3361A0E58396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91D6A09E-5973-4BBE-BEF2-F77B5BACB9D7}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="25200" windowHeight="14400" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="25200" windowHeight="14400" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -596,103 +596,6 @@
     <t>We'll explore your ambitions for promotion and the criteria. During the session, we'll assess your current skill set, identify areas for growth, and create a plan to help you stand out and advance.</t>
   </si>
   <si>
-    <t>You are an internal career coach at Company. Your aim is to guide me to identify specfic areas of personal and professional development to meet my short and long-term career aspirations, in Company or elsewhere. Your tone should be professional, friendly and empathetic. Use UK english.</t>
-  </si>
-  <si>
-    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. The actions should clearly define a WHAT and a HOW. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal Company site pages if suitable.
-The summary should follow the format below, where the descriptions in [ ] should be generated by you, and the descriptions between % % will be provided by me. Please use github flavored markdown and use bullets if relevant.
-[Recap of our discussion, key concerns, problems and potential approaches, approximately 200 words]
-#### Action Plan
-Below are some suggestions of actions you can take. You understand your situation best, so please edit and use these as a starting point or create your own. Consider adding these to your PDD goals.
-::Action:: [Suggested Action]
-::Action:: [Suggested Action]
-::Action:: [Suggested Action]</t>
-  </si>
-  <si>
-    <t>Analyze our conversation from the perspective of Company, and provide employee insights in a structured format:
-1. Sentiment Analysis - Assign scores (0-100) for the following emotions: Satisfaction, Dissatisfaction, Anger, Fear, Surprise, Discust, Anxiety, Enthusiasm, Boredom, Confidence. Display as a table (Github markdown). Use a standardized methodology, which includes pre-processing, feature extraction, sentiment lexicon or a pre-trained language model, and validation to ensure consistent and reliable sentiment scores.
-2a. Areas for growth and development: Qualitative analysis. 
-2b. Areas for growth and development: Standardised key themes and skill areas.
-3a. Company culture and values alignment: score the level of alignment between employee values and company culture (low, neutral, high)
-3b. Company culture and values alignment: qualitative analysis to help understand the underlying reasons for misalignment's.
-4. Risk of leaving: Quantitative approach. Identifying specific phrases or keywords indicating dissatisfaction or intent to leave can be quantified. (very unlikely, unlikely, neutral, likely, very likely)
-5a. Feedback on company policies and procedures: Qualitative approach. Analyse employee feedback and suggestions. Comparisons can be made by categorizing similar feedback themes across employees.
-5b. Feedback on company policies and procedures: list of key standardised themes.
-6a. Employee goals and aspirations: Qualitative approach. 
-6b. Employee goals and aspirations: List of key standardised themes.
-7. Barriers to success: Qualitative approach. Identify the challenges and obstacles faced by employees. 
-8. Overall satisfaction: Quantitative approach. Employee satisfaction can be measured through standardized survey questions or by analyzing sentiment scores in the conversation. This allows for easy comparison across employees.</t>
-  </si>
-  <si>
-    <t>Career@Company</t>
-  </si>
-  <si>
-    <t>Thank you for taking the time to explore your career at Company. We are here to help you clarify and navigate your professional journey within our organisation. Our goal is to provide personalised guidance, and where possible, connect you with resources that help in your current and future roles.
-We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.
-Any information provided is confidential and will not be shared further.</t>
-  </si>
-  <si>
-    <t>I safeguard Company's financial wellbeing by ensuring our products are well-designed and suitably priced. I also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
-  </si>
-  <si>
-    <t>I support and develop Company's Premier Agency channel through programmes designed to raise the productivity and professionalism of our agency service.</t>
-  </si>
-  <si>
-    <t>I safeguard Company’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. I am also responsible for all external reporting including statutory and regulatory filings.</t>
-  </si>
-  <si>
-    <t>I help Company to engage in a meaningful manner with customers and other stakeholders. I ensure the consistency of Company’s messaging across all channels, design marketing campaigns to manage customer advocacy and experience, and use data insights to make key business decisions.</t>
-  </si>
-  <si>
-    <t>I collaborate and partner with banks, independent financial advisory firms, brokerage bodies and other third-party intermediates, to market Company products through various distribution channels.</t>
-  </si>
-  <si>
-    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
-Ask what I initiatives I have already taken.
-Ask what i'm doing to further my learning and skillset, point me to Company resources where appropriate.
-Ask what I have been doing to further my network.
-If I tell you I have been passed over for promotion (or similar), remind me that at Company, promotions are a combination of:
-- Business need for the role at a more senior band. If there is not sufficient business need, Company may not need to promote employees.
-- Skills, experience, and impact
-- Interest and demonstrated commitment to learn the skills needed for the next level
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
-  </si>
-  <si>
-    <t>Help me identify why I'm feeling stressed.
-Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
-Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
-Ask what I initiatives I have already taken, and what I'm doing to recover or adapt my workload.
-Ask if I have attended Company's mental wellbeing workshop, and recommend me to sign up if I have not.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
-  </si>
-  <si>
-    <t>Company development programs</t>
-  </si>
-  <si>
-    <t>We'll discuss the various Company development programs available to support your growth. During the session, we'll identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
-  </si>
-  <si>
-    <t>Ask what I development programs I have already taken.
-Ask me about my career goals, and help me identify what learning programs would be most appropriate and useful.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some Company development programs to sign up for, and prompt me to take action.</t>
-  </si>
-  <si>
-    <t>Do you have any specific career goals and areas for development within Company?</t>
-  </si>
-  <si>
-    <t>Joining Company</t>
-  </si>
-  <si>
-    <t>We'll navigate the transition to Company. During the session, we'll discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
-  </si>
-  <si>
-    <t>What is your new role within Company and what are your key responsibilities?</t>
-  </si>
-  <si>
-    <t>### Purpose Statement
-Company's Purpose is to help people live Healthier, Longer, Better Lives, in every community in which we live and work, with products and policies that don't just protect lives but help make lives healthier, longer and better.</t>
-  </si>
-  <si>
     <t>My name is {user_name}, I am a {band} in {function}. I am {position}.
 I have the following experience:
 {experience}
@@ -716,19 +619,6 @@
 {question_format}</t>
   </si>
   <si>
-    <t>#### Learning
-Our learning culture actively supports people in their current roles, while providing a platform for growth and development within Company. Our focus on learning is a key part of our ambition to ensure our people can upskill, reskill, work more flexibly and adapt to the changing world of work. We take a holistic approach to learning and development that includes knowledge and skills accumulated from on-the-job experiences, mobility, collaborative projects, structured virtual lessons and digital self-leaming, supported by mentoring and coaching. 
-We believe that career mobility and assignments in different business units or functions provide our employees with new opportunities. These assignments serve as platforms to learn new skills and help develop the individual's Company network. 
-To ensure that we continue to develop talent for the future, we continuously research the skills and knowledge requirements of our industry and review feedback from our employees, to design the programmes that address these needs. In addition, our people are required to regularly complete mandatory training on a range of technical, governance and conduct-related topics. 
-We have launched, and are in the process of designing additional programmes to incubate new talent capabilities and upskill employees in core lines of business across the Group including the Company Analytics Academy which focuses on building data analytics and business analysis capability across all levels in Company. The "Converge' learning journey is a bespoke 10-month reskilling programme with apprenticeship opportunities for employees to equip them for business analysis roles. 
-We also upskill senior leaders with a stronger understanding of the power of analytics through the "Analytics for Leaders" programme. The Company Agile Academy, which currently provides two reskilling programmes — the "Agile Practitioner" and the "Agile Team Lead" — to help Company build internal capability to drive business transformation. The Company Distribution Leadership Programme, which provides a platform for our most senior distribution leaders to further develop their distribution skill sets. 
-Digital content and delivery methods play an important role in shaping a culture of continuous learning at Company. All our business units provide employees with access to the Company Learning Hub, an online platform which provides access to thousands of digital learning courses. In 2022, we curated digital learning programmes with over 110 modules to support learning needs of employees in management and specialist career tracks. 
-Company Learning Hub can be accessed at www.company.com/learninghub.
-You can sign up for 'Agile Team Lead' here www.company.com/agile-sign-up
-You can sign up for 'Agile Practitioner' here www.company.com/agile-sign-up
-You can sign up for 'Company Distribution Leadership' here www.company.com/distro_leader_sign-up</t>
-  </si>
-  <si>
     <t>### Promotions
 Promotions are a combination of:
 - Business need for the role at a more senior band
@@ -737,8 +627,118 @@
 Promotion criteria is available here: www.company.com/promotion_criteria</t>
   </si>
   <si>
+    <t>You are an internal career coach at AIA. Your aim is to guide me to identify specfic areas of personal and professional development to meet my short and long-term career aspirations, in AIA or elsewhere. Your tone should be professional, friendly and empathetic. Use UK english.</t>
+  </si>
+  <si>
+    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. The actions should clearly define a WHAT and a HOW. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal AIA site pages if suitable.
+The summary should follow the format below, where the descriptions in [ ] should be generated by you, and the descriptions between % % will be provided by me. Please use github flavored markdown and use bullets if relevant.
+[Recap of our discussion, key concerns, problems and potential approaches, approximately 200 words]
+#### Action Plan
+Below are some suggestions of actions you can take. You understand your situation best, so please edit and use these as a starting point or create your own. Consider adding these to your PDD goals.
+::Action:: [Suggested Action]
+::Action:: [Suggested Action]
+::Action:: [Suggested Action]</t>
+  </si>
+  <si>
+    <t>Analyze our conversation from the perspective of AIA, and provide employee insights in a structured format:
+1. Sentiment Analysis - Assign scores (0-100) for the following emotions: Satisfaction, Dissatisfaction, Anger, Fear, Surprise, Discust, Anxiety, Enthusiasm, Boredom, Confidence. Display as a table (Github markdown). Use a standardized methodology, which includes pre-processing, feature extraction, sentiment lexicon or a pre-trained language model, and validation to ensure consistent and reliable sentiment scores.
+2a. Areas for growth and development: Qualitative analysis. 
+2b. Areas for growth and development: Standardised key themes and skill areas.
+3a. AIA culture and values alignment: score the level of alignment between employee values and company culture (low, neutral, high)
+3b. AIA culture and values alignment: qualitative analysis to help understand the underlying reasons for misalignment's.
+4. Risk of leaving: Quantitative approach. Identifying specific phrases or keywords indicating dissatisfaction or intent to leave can be quantified. (very unlikely, unlikely, neutral, likely, very likely)
+5a. Feedback on company policies and procedures: Qualitative approach. Analyse employee feedback and suggestions. Comparisons can be made by categorizing similar feedback themes across employees.
+5b. Feedback on company policies and procedures: list of key standardised themes.
+6a. Employee goals and aspirations: Qualitative approach. 
+6b. Employee goals and aspirations: List of key standardised themes.
+7. Barriers to success: Qualitative approach. Identify the challenges and obstacles faced by employees. 
+8. Overall satisfaction: Quantitative approach. Employee satisfaction can be measured through standardized survey questions or by analyzing sentiment scores in the conversation. This allows for easy comparison across employees.</t>
+  </si>
+  <si>
+    <t>Career@AIA</t>
+  </si>
+  <si>
+    <t>Thank you for taking the time to explore your career at AIA. We are here to help you clarify and navigate your professional journey within our organisation. Our goal is to provide personalised guidance, and where possible, connect you with resources that help in your current and future roles.
+We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.
+Any information provided is confidential and will not be shared further.</t>
+  </si>
+  <si>
+    <t>I safeguard AIA's financial wellbeing by ensuring our products are well-designed and suitably priced. I also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
+  </si>
+  <si>
+    <t>I support and develop AIA's Premier Agency channel through programmes designed to raise the productivity and professionalism of our agency service.</t>
+  </si>
+  <si>
+    <t>I safeguard AIA’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. I am also responsible for all external reporting including statutory and regulatory filings.</t>
+  </si>
+  <si>
+    <t>I help AIA to engage in a meaningful manner with customers and other stakeholders. I ensure the consistency of AIA’s messaging across all channels, design marketing campaigns to manage customer advocacy and experience, and use data insights to make key business decisions.</t>
+  </si>
+  <si>
+    <t>I collaborate and partner with banks, independent financial advisory firms, brokerage bodies and other third-party intermediates, to market AIA products through various distribution channels.</t>
+  </si>
+  <si>
+    <t>Challenge my answers, and ask relevant questions for a deeper understanding.
+Ask what I initiatives I have already taken.
+Ask what i'm doing to further my learning and skillset, point me to AIA resources where appropriate.
+Ask what I have been doing to further my network.
+If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
+- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
+- Skills, experience, and impact
+- Interest and demonstrated commitment to learn the skills needed for the next level
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
+  </si>
+  <si>
+    <t>Help me identify why I'm feeling stressed.
+Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
+Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
+Ask what I initiatives I have already taken, and what I'm doing to recover or adapt my workload.
+Ask if I have attended AIA's mental wellbeing workshop, and recommend me to sign up if I have not.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
+  </si>
+  <si>
+    <t>AIA development programs</t>
+  </si>
+  <si>
+    <t>We'll discuss the various AIA development programs available to support your growth. During the session, we'll identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
+  </si>
+  <si>
+    <t>Ask what I development programs I have already taken.
+Ask me about my career goals, and help me identify what learning programs would be most appropriate and useful.
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some AIA development programs to sign up for, and prompt me to take action.</t>
+  </si>
+  <si>
+    <t>Do you have any specific career goals and areas for development within AIA?</t>
+  </si>
+  <si>
+    <t>Joining AIA</t>
+  </si>
+  <si>
+    <t>We'll navigate the transition to AIA. During the session, we'll discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
+  </si>
+  <si>
+    <t>What is your new role within AIA and what are your key responsibilities?</t>
+  </si>
+  <si>
+    <t>### Purpose Statement
+AIA's Purpose is to help people live Healthier, Longer, Better Lives, in every community in which we live and work, with products and policies that don't just protect lives but help make lives healthier, longer and better.</t>
+  </si>
+  <si>
+    <t>#### Learning
+Our learning culture actively supports people in their current roles, while providing a platform for growth and development within AIA. Our focus on learning is a key part of our ambition to ensure our people can upskill, reskill, work more flexibly and adapt to the changing world of work. We take a holistic approach to learning and development that includes knowledge and skills accumulated from on-the-job experiences, mobility, collaborative projects, structured virtual lessons and digital self-leaming, supported by mentoring and coaching. 
+We believe that career mobility and assignments in different business units or functions provide our employees with new opportunities. These assignments serve as platforms to learn new skills and help develop the individual's AIA network. 
+To ensure that we continue to develop talent for the future, we continuously research the skills and knowledge requirements of our industry and review feedback from our employees, to design the programmes that address these needs. In addition, our people are required to regularly complete mandatory training on a range of technical, governance and conduct-related topics. 
+We have launched, and are in the process of designing additional programmes to incubate new talent capabilities and upskill employees in core lines of business across the Group including the AIA Analytics Academy which focuses on building data analytics and business analysis capability across all levels in AIA. The "Converge' learning journey is a bespoke 10-month reskilling programme with apprenticeship opportunities for employees to equip them for business analysis roles. 
+We also upskill senior leaders with a stronger understanding of the power of analytics through the "Analytics for Leaders" programme. The AIA Agile Academy, which currently provides two reskilling programmes — the "Agile Practitioner" and the "Agile Team Lead" — to help AIA build internal capability to drive business transformation. The AIA Distribution Leadership Programme, which provides a platform for our most senior distribution leaders to further develop their distribution skill sets. 
+Digital content and delivery methods play an important role in shaping a culture of continuous learning at AIA. All our business units provide employees with access to the AIA Learning Hub, an online platform which provides access to thousands of digital learning courses. In 2022, we curated digital learning programmes with over 110 modules to support learning needs of employees in management and specialist career tracks. 
+AIA Learning Hub can be accessed at www.company.com/learninghub.
+You can sign up for 'Agile Team Lead' here www.company.com/agile-sign-up
+You can sign up for 'Agile Practitioner' here www.company.com/agile-sign-up
+You can sign up for 'AIA Distribution Leadership' here www.company.com/distro_leader_sign-up</t>
+  </si>
+  <si>
     <t>### Mental Well-being
-Company offers mental wellbeing workshops for employees and managers. 
+AIA offers mental wellbeing workshops for employees and managers. 
 You can sign up at www.company.com/mental-well-being sign-up.</t>
   </si>
 </sst>
@@ -1196,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1214,7 +1214,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1232,7 +1232,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -1240,7 +1240,7 @@
         <v>154</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>90</v>
@@ -1372,8 +1372,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Career@AIA" xr:uid="{7E2F4BF8-9C1B-455E-A97B-EA51A27378EE}"/>
-    <hyperlink ref="B7" r:id="rId2" display="Career@AIA" xr:uid="{8AC66726-ED59-4CF3-85C4-52A114B1F2D3}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7E2F4BF8-9C1B-455E-A97B-EA51A27378EE}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{8AC66726-ED59-4CF3-85C4-52A114B1F2D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1407,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1415,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1682,7 +1682,7 @@
         <v>158</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
@@ -1756,7 +1756,7 @@
         <v>146</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D9" s="9">
         <v>4</v>
@@ -1933,19 +1933,19 @@
     </row>
     <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D17" s="9">
         <v>4</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
@@ -2018,10 +2018,10 @@
     </row>
     <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>121</v>
@@ -2030,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2" t="s">
@@ -2151,7 +2151,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
@@ -2159,7 +2159,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -2167,7 +2167,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a174a4e09cb8396/1. Projects/pythonCourse/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{66D05300-D3C3-44CE-BAEA-3361A0E58396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91D6A09E-5973-4BBE-BEF2-F77B5BACB9D7}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{66D05300-D3C3-44CE-BAEA-3361A0E58396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E992203-142F-4A7E-8C99-CC98FE39A2DD}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="25200" windowHeight="14400" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
+    <workbookView xWindow="3072" yWindow="2880" windowWidth="25200" windowHeight="14400" xr2:uid="{9AEA82DC-1007-464E-9B9C-0501EEC6530D}"/>
   </bookViews>
   <sheets>
     <sheet name="prompts" sheetId="1" r:id="rId1"/>
@@ -627,10 +627,10 @@
 Promotion criteria is available here: www.company.com/promotion_criteria</t>
   </si>
   <si>
-    <t>You are an internal career coach at AIA. Your aim is to guide me to identify specfic areas of personal and professional development to meet my short and long-term career aspirations, in AIA or elsewhere. Your tone should be professional, friendly and empathetic. Use UK english.</t>
-  </si>
-  <si>
-    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. The actions should clearly define a WHAT and a HOW. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal AIA site pages if suitable.
+    <t>You are an internal career coach at Company. Your aim is to guide me to identify specfic areas of personal and professional development to meet my short and long-term career aspirations, in Company or elsewhere. Your tone should be professional, friendly and empathetic. Use UK english.</t>
+  </si>
+  <si>
+    <t>Write a 250 word recap of our discussion with goals and suggested action points. The actions should be specific, measurable, achievable, relevant, and time-bound. The actions should clearly define a WHAT and a HOW. Do not add any text after the last action point. The suggested actions should be written in first person (e.g. "I will schedule..."). You can refer me to relevant internal Company site pages if suitable.
 The summary should follow the format below, where the descriptions in [ ] should be generated by you, and the descriptions between % % will be provided by me. Please use github flavored markdown and use bullets if relevant.
 [Recap of our discussion, key concerns, problems and potential approaches, approximately 200 words]
 #### Action Plan
@@ -640,12 +640,12 @@
 ::Action:: [Suggested Action]</t>
   </si>
   <si>
-    <t>Analyze our conversation from the perspective of AIA, and provide employee insights in a structured format:
+    <t>Analyze our conversation from the perspective of Company, and provide employee insights in a structured format:
 1. Sentiment Analysis - Assign scores (0-100) for the following emotions: Satisfaction, Dissatisfaction, Anger, Fear, Surprise, Discust, Anxiety, Enthusiasm, Boredom, Confidence. Display as a table (Github markdown). Use a standardized methodology, which includes pre-processing, feature extraction, sentiment lexicon or a pre-trained language model, and validation to ensure consistent and reliable sentiment scores.
 2a. Areas for growth and development: Qualitative analysis. 
 2b. Areas for growth and development: Standardised key themes and skill areas.
-3a. AIA culture and values alignment: score the level of alignment between employee values and company culture (low, neutral, high)
-3b. AIA culture and values alignment: qualitative analysis to help understand the underlying reasons for misalignment's.
+3a. Company culture and values alignment: score the level of alignment between employee values and company culture (low, neutral, high)
+3b. Company culture and values alignment: qualitative analysis to help understand the underlying reasons for misalignment's.
 4. Risk of leaving: Quantitative approach. Identifying specific phrases or keywords indicating dissatisfaction or intent to leave can be quantified. (very unlikely, unlikely, neutral, likely, very likely)
 5a. Feedback on company policies and procedures: Qualitative approach. Analyse employee feedback and suggestions. Comparisons can be made by categorizing similar feedback themes across employees.
 5b. Feedback on company policies and procedures: list of key standardised themes.
@@ -655,35 +655,35 @@
 8. Overall satisfaction: Quantitative approach. Employee satisfaction can be measured through standardized survey questions or by analyzing sentiment scores in the conversation. This allows for easy comparison across employees.</t>
   </si>
   <si>
-    <t>Career@AIA</t>
-  </si>
-  <si>
-    <t>Thank you for taking the time to explore your career at AIA. We are here to help you clarify and navigate your professional journey within our organisation. Our goal is to provide personalised guidance, and where possible, connect you with resources that help in your current and future roles.
+    <t>Career@Company</t>
+  </si>
+  <si>
+    <t>Thank you for taking the time to explore your career at Company. We are here to help you clarify and navigate your professional journey within our organisation. Our goal is to provide personalised guidance, and where possible, connect you with resources that help in your current and future roles.
 We encourage you to take advantage of this service, whether you're just starting out, seeking advancement, facing challenges or want to explore new opportunities within the company. Together, let's embark on a journey toward achieving your career goals.
 Any information provided is confidential and will not be shared further.</t>
   </si>
   <si>
-    <t>I safeguard AIA's financial wellbeing by ensuring our products are well-designed and suitably priced. I also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
-  </si>
-  <si>
-    <t>I support and develop AIA's Premier Agency channel through programmes designed to raise the productivity and professionalism of our agency service.</t>
-  </si>
-  <si>
-    <t>I safeguard AIA’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. I am also responsible for all external reporting including statutory and regulatory filings.</t>
-  </si>
-  <si>
-    <t>I help AIA to engage in a meaningful manner with customers and other stakeholders. I ensure the consistency of AIA’s messaging across all channels, design marketing campaigns to manage customer advocacy and experience, and use data insights to make key business decisions.</t>
-  </si>
-  <si>
-    <t>I collaborate and partner with banks, independent financial advisory firms, brokerage bodies and other third-party intermediates, to market AIA products through various distribution channels.</t>
+    <t>I safeguard Company's financial wellbeing by ensuring our products are well-designed and suitably priced. I also analyse business performance to ensure proper management of the insurance policies in-force, while maintaining adequate reserves, reinsurance and capital levels to fulfil our obligations to policyholders.</t>
+  </si>
+  <si>
+    <t>I support and develop Company's Premier Agency channel through programmes designed to raise the productivity and professionalism of our agency service.</t>
+  </si>
+  <si>
+    <t>I safeguard Company’s financial interests through effective financial controls, timely and accurate management information and insightful financial analysis to support and drive the business forward. I am also responsible for all external reporting including statutory and regulatory filings.</t>
+  </si>
+  <si>
+    <t>I help Company to engage in a meaningful manner with customers and other stakeholders. I ensure the consistency of Company’s messaging across all channels, design marketing campaigns to manage customer advocacy and experience, and use data insights to make key business decisions.</t>
+  </si>
+  <si>
+    <t>I collaborate and partner with banks, independent financial advisory firms, brokerage bodies and other third-party intermediates, to market Company products through various distribution channels.</t>
   </si>
   <si>
     <t>Challenge my answers, and ask relevant questions for a deeper understanding.
 Ask what I initiatives I have already taken.
-Ask what i'm doing to further my learning and skillset, point me to AIA resources where appropriate.
+Ask what i'm doing to further my learning and skillset, point me to Company resources where appropriate.
 Ask what I have been doing to further my network.
-If I tell you I have been passed over for promotion (or similar), remind me that at AIA, promotions are a combination of:
-- Business need for the role at a more senior band. If there is not sufficient business need, AIA may not need to promote employees.
+If I tell you I have been passed over for promotion (or similar), remind me that at Company, promotions are a combination of:
+- Business need for the role at a more senior band. If there is not sufficient business need, Company may not need to promote employees.
 - Skills, experience, and impact
 - Interest and demonstrated commitment to learn the skills needed for the next level
 Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to manage my expectations, and help me decide on some meaningful next steps I can take to increase my chances of promotion.</t>
@@ -693,52 +693,52 @@
 Challenge why I'm feeling stressed in these situations, ask how I might reframe the situation.
 Ask what symptoms of burnout or signs of excessive stress I have experienced, give some examples.
 Ask what I initiatives I have already taken, and what I'm doing to recover or adapt my workload.
-Ask if I have attended AIA's mental wellbeing workshop, and recommend me to sign up if I have not.
+Ask if I have attended Company's mental wellbeing workshop, and recommend me to sign up if I have not.
 Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some meaningful next steps I can take to reduce, manage and recover from my stress.</t>
   </si>
   <si>
-    <t>AIA development programs</t>
-  </si>
-  <si>
-    <t>We'll discuss the various AIA development programs available to support your growth. During the session, we'll identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
+    <t>Company development programs</t>
+  </si>
+  <si>
+    <t>We'll discuss the various Company development programs available to support your growth. During the session, we'll identify the most suitable programs for your goals and create a plan to maximise the benefits of your participation.</t>
   </si>
   <si>
     <t>Ask what I development programs I have already taken.
 Ask me about my career goals, and help me identify what learning programs would be most appropriate and useful.
-Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some AIA development programs to sign up for, and prompt me to take action.</t>
-  </si>
-  <si>
-    <t>Do you have any specific career goals and areas for development within AIA?</t>
-  </si>
-  <si>
-    <t>Joining AIA</t>
-  </si>
-  <si>
-    <t>We'll navigate the transition to AIA. During the session, we'll discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
-  </si>
-  <si>
-    <t>What is your new role within AIA and what are your key responsibilities?</t>
+Throughout the sequence of questions, focus on facilitating my thought-processing for deciding next steps by asking follow-up questions and offering further suggestions when appropriate. The goal is to help me identify some Company development programs to sign up for, and prompt me to take action.</t>
+  </si>
+  <si>
+    <t>Do you have any specific career goals and areas for development within Company?</t>
+  </si>
+  <si>
+    <t>Joining Company</t>
+  </si>
+  <si>
+    <t>We'll navigate the transition to Company. During the session, we'll discuss the company culture, expectations, and resources available to support your success, as well as create a plan to help you integrate smoothly into your new role.</t>
+  </si>
+  <si>
+    <t>What is your new role within Company and what are your key responsibilities?</t>
   </si>
   <si>
     <t>### Purpose Statement
-AIA's Purpose is to help people live Healthier, Longer, Better Lives, in every community in which we live and work, with products and policies that don't just protect lives but help make lives healthier, longer and better.</t>
+Company's Purpose is to help people live Healthier, Longer, Better Lives, in every community in which we live and work, with products and policies that don't just protect lives but help make lives healthier, longer and better.</t>
   </si>
   <si>
     <t>#### Learning
-Our learning culture actively supports people in their current roles, while providing a platform for growth and development within AIA. Our focus on learning is a key part of our ambition to ensure our people can upskill, reskill, work more flexibly and adapt to the changing world of work. We take a holistic approach to learning and development that includes knowledge and skills accumulated from on-the-job experiences, mobility, collaborative projects, structured virtual lessons and digital self-leaming, supported by mentoring and coaching. 
-We believe that career mobility and assignments in different business units or functions provide our employees with new opportunities. These assignments serve as platforms to learn new skills and help develop the individual's AIA network. 
+Our learning culture actively supports people in their current roles, while providing a platform for growth and development within Company. Our focus on learning is a key part of our ambition to ensure our people can upskill, reskill, work more flexibly and adapt to the changing world of work. We take a holistic approach to learning and development that includes knowledge and skills accumulated from on-the-job experiences, mobility, collaborative projects, structured virtual lessons and digital self-leaming, supported by mentoring and coaching. 
+We believe that career mobility and assignments in different business units or functions provide our employees with new opportunities. These assignments serve as platforms to learn new skills and help develop the individual's Company network. 
 To ensure that we continue to develop talent for the future, we continuously research the skills and knowledge requirements of our industry and review feedback from our employees, to design the programmes that address these needs. In addition, our people are required to regularly complete mandatory training on a range of technical, governance and conduct-related topics. 
-We have launched, and are in the process of designing additional programmes to incubate new talent capabilities and upskill employees in core lines of business across the Group including the AIA Analytics Academy which focuses on building data analytics and business analysis capability across all levels in AIA. The "Converge' learning journey is a bespoke 10-month reskilling programme with apprenticeship opportunities for employees to equip them for business analysis roles. 
-We also upskill senior leaders with a stronger understanding of the power of analytics through the "Analytics for Leaders" programme. The AIA Agile Academy, which currently provides two reskilling programmes — the "Agile Practitioner" and the "Agile Team Lead" — to help AIA build internal capability to drive business transformation. The AIA Distribution Leadership Programme, which provides a platform for our most senior distribution leaders to further develop their distribution skill sets. 
-Digital content and delivery methods play an important role in shaping a culture of continuous learning at AIA. All our business units provide employees with access to the AIA Learning Hub, an online platform which provides access to thousands of digital learning courses. In 2022, we curated digital learning programmes with over 110 modules to support learning needs of employees in management and specialist career tracks. 
-AIA Learning Hub can be accessed at www.company.com/learninghub.
+We have launched, and are in the process of designing additional programmes to incubate new talent capabilities and upskill employees in core lines of business across the Group including the Company Analytics Academy which focuses on building data analytics and business analysis capability across all levels in Company. The "Converge' learning journey is a bespoke 10-month reskilling programme with apprenticeship opportunities for employees to equip them for business analysis roles. 
+We also upskill senior leaders with a stronger understanding of the power of analytics through the "Analytics for Leaders" programme. The Company Agile Academy, which currently provides two reskilling programmes — the "Agile Practitioner" and the "Agile Team Lead" — to help Company build internal capability to drive business transformation. The Company Distribution Leadership Programme, which provides a platform for our most senior distribution leaders to further develop their distribution skill sets. 
+Digital content and delivery methods play an important role in shaping a culture of continuous learning at Company. All our business units provide employees with access to the Company Learning Hub, an online platform which provides access to thousands of digital learning courses. In 2022, we curated digital learning programmes with over 110 modules to support learning needs of employees in management and specialist career tracks. 
+Company Learning Hub can be accessed at www.company.com/learninghub.
 You can sign up for 'Agile Team Lead' here www.company.com/agile-sign-up
 You can sign up for 'Agile Practitioner' here www.company.com/agile-sign-up
-You can sign up for 'AIA Distribution Leadership' here www.company.com/distro_leader_sign-up</t>
+You can sign up for 'Company Distribution Leadership' here www.company.com/distro_leader_sign-up</t>
   </si>
   <si>
     <t>### Mental Well-being
-AIA offers mental wellbeing workshops for employees and managers. 
+Company offers mental wellbeing workshops for employees and managers. 
 You can sign up at www.company.com/mental-well-being sign-up.</t>
   </si>
 </sst>
@@ -866,10 +866,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,7 +1167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EC875-F3B4-48F0-8EAB-93E899189853}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1372,8 +1370,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7E2F4BF8-9C1B-455E-A97B-EA51A27378EE}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{8AC66726-ED59-4CF3-85C4-52A114B1F2D3}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Career@AIA" xr:uid="{7E2F4BF8-9C1B-455E-A97B-EA51A27378EE}"/>
+    <hyperlink ref="B7" r:id="rId2" display="Career@AIA" xr:uid="{8AC66726-ED59-4CF3-85C4-52A114B1F2D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
